--- a/data/hotels_by_city/Houston/Houston_shard_1.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d293234-Reviews-Hotel_Ylem-Houston_Texas.html</t>
   </si>
   <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hotel-Ylem.h1050240.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2351 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r597800746-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>293234</t>
+  </si>
+  <si>
+    <t>597800746</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Terrible very disappointed</t>
+  </si>
+  <si>
+    <t>Just checked in the smell in the lobby was so strong from a scent machine that made us all nauseous. Fridge smells rotten. Air not that cold.  Front desk person said lots of people complain about the scent machine being so strong. It smells like cheap  Cologne. I paid for two nights but will not be staying here another night. O and the breakfast area is next to lobby. I guess we won’t be eating here bc of the smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Holly T, Manager at Hotel Ylem, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Just checked in the smell in the lobby was so strong from a scent machine that made us all nauseous. Fridge smells rotten. Air not that cold.  Front desk person said lots of people complain about the scent machine being so strong. It smells like cheap  Cologne. I paid for two nights but will not be staying here another night. O and the breakfast area is next to lobby. I guess we won’t be eating here bc of the smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r579859270-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579859270</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Two night stay</t>
+  </si>
+  <si>
+    <t>The booking of a twin room didn’t work out due to that room not being cleaned so we were given an upgraded room for no extra cost. This hotel has a great atmosphere with friendly staff. The barman had a wealth of local knowledge and his recommendations were good. The morning buffet was good and late enough for our jet lag to access. The hotels decorations were very entertaining, our room was at the rear and quiet even with the graduation group in house for the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Holly T, General Manager at Hotel Ylem, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The booking of a twin room didn’t work out due to that room not being cleaned so we were given an upgraded room for no extra cost. This hotel has a great atmosphere with friendly staff. The barman had a wealth of local knowledge and his recommendations were good. The morning buffet was good and late enough for our jet lag to access. The hotels decorations were very entertaining, our room was at the rear and quiet even with the graduation group in house for the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r578807520-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578807520</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Room for improvement</t>
+  </si>
+  <si>
+    <t>Rooms were good sized and clean and the staff welcoming.A few improvements would be welcome particularly the gym which was a major disappointment. Either shut it down or spend a few grand to make it functional. No free weights, towels or water. Two of the three cardio machines are broken and there is only one small apparatus with a few attachments for weight training.The plumbing in our room was a bit patchy with the need to flush multiple times. There is a shuttle bus but not much in the area apart from supermarkets and fast food outlets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r567512507-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567512507</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very impersonal and unwelcoming hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in a business trip for two weeks in Houston and was booked at Hotel Ylem near Medical Center. Very disappointed with hotel! Bad dark gloomy rooms, old and broken bathroom fittings, plaster feeling off, staff not very engaged, only positive was the good breakfast and probably cheaper rates than neighbourhood hotels </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r564440550-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564440550</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and good enough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I understand this used to be a Holiday Inn Express that has been converted into an attempt at a boutique hotel.  We stayed there a couple of nights and it was clean, comfortable bed, normal free breakfast, and was basically fine if you are not looking for something more.  It is very close to NLP stadium and within walking distance of several restaurants.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r564398160-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564398160</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>Its a remodeled Holiday Inn - its a bit kitschy - but the rooms are large, very clean, and the staff could not have been nicer.  I would use them again.Only knock is the location - its a bit away from much and takes time to get to.  While you can walk to some stores - don't you'll get run over. (not the hotels fault just a common on local drivers)</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r553393096-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553393096</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Felt right at home .</t>
+  </si>
+  <si>
+    <t>Friendly staff thanks to Will and Bill. Loved the ambience of the hotel . I for one loved the fragrance of the hotel. Complimentary breakfast was good. It had so many thoughtful details throughout ,wish tree and interesting art works . The beds were comfortable . The location is perfect if you are visiting Md Anderson . My only complaint was that I don't feel I got the medical discount of 16% as advertised on joes house .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Cameron S, Public Relations Manager at Hotel Ylem, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Friendly staff thanks to Will and Bill. Loved the ambience of the hotel . I for one loved the fragrance of the hotel. Complimentary breakfast was good. It had so many thoughtful details throughout ,wish tree and interesting art works . The beds were comfortable . The location is perfect if you are visiting Md Anderson . My only complaint was that I don't feel I got the medical discount of 16% as advertised on joes house .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r552332351-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552332351</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Boutique Hotel in a unexpected location.</t>
+  </si>
+  <si>
+    <t>This is a jewel!  Oh my, it was a huge surprise to walk through the doors and see this cool boutique hotel. Reminds me of the hotels we stay in when in Europe, especially Barcelona. Great guy at the desk  and a very handy location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cameron S, Public Relations Manager at Hotel Ylem, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>This is a jewel!  Oh my, it was a huge surprise to walk through the doors and see this cool boutique hotel. Reminds me of the hotels we stay in when in Europe, especially Barcelona. Great guy at the desk  and a very handy location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r541852000-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541852000</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Ok but won't stay again</t>
+  </si>
+  <si>
+    <t>There are plenty of other reviews that mention the musty smell. My room was also musty, like a damp attic with no ventilation. The toilet was leaking so had brown streaks of water in it when I arrived which was a little off putting. Shower also had brown water near the drain.Bed was very comfortable. However I won't  be staying here again due to the other items mentioned above.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>There are plenty of other reviews that mention the musty smell. My room was also musty, like a damp attic with no ventilation. The toilet was leaking so had brown streaks of water in it when I arrived which was a little off putting. Shower also had brown water near the drain.Bed was very comfortable. However I won't  be staying here again due to the other items mentioned above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r529161323-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529161323</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Funky Hotel!</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised to find this gem of a hotel!  Conveniently located near the medical centers and a host of other places.  Inviting with its artistic and colorful decor.  Clean.  Filled with modern technology - i.e., usb ports on the head board.  Comfortable bed.  Great amenities for the bath.  I loved everything about the place.  Get a room on the top (3rd) floor if you can for extra high ceilings and amazing lanterns lighting the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Holly T, Director of Sales at Hotel Ylem, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised to find this gem of a hotel!  Conveniently located near the medical centers and a host of other places.  Inviting with its artistic and colorful decor.  Clean.  Filled with modern technology - i.e., usb ports on the head board.  Comfortable bed.  Great amenities for the bath.  I loved everything about the place.  Get a room on the top (3rd) floor if you can for extra high ceilings and amazing lanterns lighting the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r522069155-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522069155</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Hotel kicked us out</t>
+  </si>
+  <si>
+    <t>We booked 3 nights but hotel forced us to leave after 2 nights. They said they don't have our reservation records. We have to leave with all baggages and two kids. Don't know where to live tonight. So stupid!MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked 3 nights but hotel forced us to leave after 2 nights. They said they don't have our reservation records. We have to leave with all baggages and two kids. Don't know where to live tonight. So stupid!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r518010081-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518010081</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Very Helpful</t>
+  </si>
+  <si>
+    <t>We were coming into Houston for a concert this past weekend. We made our reservations with no insurance because we knew for sure we were going and were looking extremely forward to the trip for a long time. Hurricane Harvey came and the hotel were extremely nice and accommodating. They were understanding about our travel needs and very helpful. They stayed in touch with us and were very quick to answer any questions we had. We didn't end up staying at this hotel due to the storm, but they helped clear our reservation and were extremely understanding and helpful. I would highly suggest this hotel due to customer service alone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We were coming into Houston for a concert this past weekend. We made our reservations with no insurance because we knew for sure we were going and were looking extremely forward to the trip for a long time. Hurricane Harvey came and the hotel were extremely nice and accommodating. They were understanding about our travel needs and very helpful. They stayed in touch with us and were very quick to answer any questions we had. We didn't end up staying at this hotel due to the storm, but they helped clear our reservation and were extremely understanding and helpful. I would highly suggest this hotel due to customer service alone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r487642335-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487642335</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Nice clean place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I lived here for a month between selling and buying a home locally. I had 2 teens and a dog with me. The breakfast was awesome and pool were great. Staff was nice and I always had a clean room to come home to. Great pub called Chupacabra Craft Beer and Salado Lone Star Winery that we enjoyed hanging out at. Good overall experience. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r485417149-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485417149</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Really nice and will only get better, I would stay again, location EXCELLENT</t>
+  </si>
+  <si>
+    <t>Excellent location, you can walk to all kinds of food and shops. The beds were super comfy, it was quiet, clean, room and bathroom very large, snazzy bar that serves cocktails. Free breakfast - it's not fancy but edible and very well maintained. They are still doing some renovations in this boutique hotel but I would stay again no doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent location, you can walk to all kinds of food and shops. The beds were super comfy, it was quiet, clean, room and bathroom very large, snazzy bar that serves cocktails. Free breakfast - it's not fancy but edible and very well maintained. They are still doing some renovations in this boutique hotel but I would stay again no doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r469528703-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469528703</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>A Must-Stay</t>
+  </si>
+  <si>
+    <t>While attending Rodeo Houston this week, we've been s​taying at Hotel Ylem, and it's made us really think more about the type of people we want to be. Didn't know a hotel could do that, but it has.It's a family-owned hotel that wants to not only bless their guests, but also make a difference in the world. They donate to charity: water and recently finished super cute, artsy hotel renovations where just about everything in the rooms has been purchased from businesses who also give to charities. From the paper products to the bedding, it all has a story.Hotel Ylem intentionally chose items that would be a blessing to other people, even though it wasn't necessarily the most cost-effective for their business. When we asked one of the owners why, she said they just really want to be faithful with what they have and to encourage others to make a difference. It sure has motivated us to do so, so thank you Hotel Ylem!Also, free continental breakfast, walking distance to NRG Stadium, shuttle service within 3 miles, and free wifi...so an all-around win.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>While attending Rodeo Houston this week, we've been s​taying at Hotel Ylem, and it's made us really think more about the type of people we want to be. Didn't know a hotel could do that, but it has.It's a family-owned hotel that wants to not only bless their guests, but also make a difference in the world. They donate to charity: water and recently finished super cute, artsy hotel renovations where just about everything in the rooms has been purchased from businesses who also give to charities. From the paper products to the bedding, it all has a story.Hotel Ylem intentionally chose items that would be a blessing to other people, even though it wasn't necessarily the most cost-effective for their business. When we asked one of the owners why, she said they just really want to be faithful with what they have and to encourage others to make a difference. It sure has motivated us to do so, so thank you Hotel Ylem!Also, free continental breakfast, walking distance to NRG Stadium, shuttle service within 3 miles, and free wifi...so an all-around win.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r437959515-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437959515</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Comfty hotel</t>
+  </si>
+  <si>
+    <t>First the good ones: Staff amazing, nice location. Really close to medical center and nice restaurants walkable distance. Also the metro is nearby. The rooms are a little small for my taste, and is currently being under some construction (but they keep this area closed). The price is really good, and breakfast is ok. I would definitely will stay here in our further visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>First the good ones: Staff amazing, nice location. Really close to medical center and nice restaurants walkable distance. Also the metro is nearby. The rooms are a little small for my taste, and is currently being under some construction (but they keep this area closed). The price is really good, and breakfast is ok. I would definitely will stay here in our further visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r437550625-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437550625</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Big Disappointment</t>
+  </si>
+  <si>
+    <t>Just spent 5 nights in this hotel so feel very confident giving fair review.  The only good thing is that beds and pillows were comfortable and I slept well.  Hotel is under construction which was not a problem other than not having clean halls and elevator.  As one other reviewer stated, front desk is not very helpful.  Breakfast was not good.Do not believe that we had a remodeled room.  Tub was marked up even though plumbling appeared new.  Drapes did not work and could not be closed completely.    THERE ARE NO CLOSETS which was an issue for two working women sharing a room.  Had a short wall above a desk that was bare sheet rock. Housekeeping is lax.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Just spent 5 nights in this hotel so feel very confident giving fair review.  The only good thing is that beds and pillows were comfortable and I slept well.  Hotel is under construction which was not a problem other than not having clean halls and elevator.  As one other reviewer stated, front desk is not very helpful.  Breakfast was not good.Do not believe that we had a remodeled room.  Tub was marked up even though plumbling appeared new.  Drapes did not work and could not be closed completely.    THERE ARE NO CLOSETS which was an issue for two working women sharing a room.  Had a short wall above a desk that was bare sheet rock. Housekeeping is lax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r435434600-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435434600</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Very Close to MD Anderson</t>
+  </si>
+  <si>
+    <t>My niece is taking chemotherapy. This hotel is very close to MD Anderson. It gives a discount to patients and provides free shuttle service. Rooms are very clean and it's newly remodeled.   Free breakfast is provided. MoreShow less</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>My niece is taking chemotherapy. This hotel is very close to MD Anderson. It gives a discount to patients and provides free shuttle service. Rooms are very clean and it's newly remodeled.   Free breakfast is provided. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r422534794-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422534794</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Very Clean with a Helpful Staff</t>
+  </si>
+  <si>
+    <t>This was our fourth trip to Houston for medical reasons. This being our fourth hotel to stay in, we were impressed with the courtesy and caring of the staff. They run a shuttle to the medical centers, hourly. They were accommodating to our needs. The room was clean and quiet. There was construction during daylight hours, but it was calm in the evening. The breakfast was better than some of the other hotels in the area. Overall, it was a pleasant three night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>This was our fourth trip to Houston for medical reasons. This being our fourth hotel to stay in, we were impressed with the courtesy and caring of the staff. They run a shuttle to the medical centers, hourly. They were accommodating to our needs. The room was clean and quiet. There was construction during daylight hours, but it was calm in the evening. The breakfast was better than some of the other hotels in the area. Overall, it was a pleasant three night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r421901431-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421901431</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>MD Anderson Cancer Center Visit</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel a few years ago ( formerly the Holiday Inn Express)It's nightly rates are reasonable compared to the other hotels in the areas. It is at least 30-40 mins walk to the medical centers. There is a shuttle available and they are extremely flexible with pick up and drop off.The room I stayed in had a large television, microwave, refrigerator and was very clean.Plenty of clean towels and toiletry.My only complaint in a "mold smell" that I encountered immediately as I entered the hotel lobby, it was also very apparent also in my room. I don't remember this problem when I stayed there previously. I am not sure why this is happening but it does make me hesitant about returning. I don't want to develop NEW health issues. I hope management will look into this matter immediately as I love the location and the affordability.They do serve breakfast which I did not part take of but it looked good. The area was clean and presentable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel a few years ago ( formerly the Holiday Inn Express)It's nightly rates are reasonable compared to the other hotels in the areas. It is at least 30-40 mins walk to the medical centers. There is a shuttle available and they are extremely flexible with pick up and drop off.The room I stayed in had a large television, microwave, refrigerator and was very clean.Plenty of clean towels and toiletry.My only complaint in a "mold smell" that I encountered immediately as I entered the hotel lobby, it was also very apparent also in my room. I don't remember this problem when I stayed there previously. I am not sure why this is happening but it does make me hesitant about returning. I don't want to develop NEW health issues. I hope management will look into this matter immediately as I love the location and the affordability.They do serve breakfast which I did not part take of but it looked good. The area was clean and presentable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r401863729-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401863729</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Make sure you go to S. Main</t>
+  </si>
+  <si>
+    <t>Hotel is great for a close and pleasant stay. Arrived a bit early and the front desk attendant was nice and polite to get our room. Rooms need detail cleaning but a great place to stay. My wife flashed the workers next door.........by accident MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is great for a close and pleasant stay. Arrived a bit early and the front desk attendant was nice and polite to get our room. Rooms need detail cleaning but a great place to stay. My wife flashed the workers next door.........by accident More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r389953671-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389953671</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t>Excellent service deck workers - Gerry &amp; Aaron, have made my stay very enjoyable and welcoming. They have assisted me with everything I need, and definitely deserve a good review. The hotel is in marvelous shape, and very beautiful. The rooms have everything you'd need, and they even offer a shuttle bus service!! WILL STAY AGAIN :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Excellent service deck workers - Gerry &amp; Aaron, have made my stay very enjoyable and welcoming. They have assisted me with everything I need, and definitely deserve a good review. The hotel is in marvelous shape, and very beautiful. The rooms have everything you'd need, and they even offer a shuttle bus service!! WILL STAY AGAIN :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r387964044-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387964044</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Construction may help this hotel. Comfortable night. A hot, though not spectacular breakfast.</t>
+  </si>
+  <si>
+    <t>Sometimes I like to spend the night near the Texas Medical Center as I have fairly often appointments at the Michael E. DeBakey VA Medical Center. If I have one that is during drive time in Houston, either morning or evening, I will get a room rather than face the aggravation of Houston traffic after a drive 90 miles away from Beaumont. I found a decent price on Priceline.com, slightly more than $120 per night at the 8080 Main Hotel. This former Holiday Inn Express is supposedly an independently owned hotel although it can still be found on the ihg.com website. The property is at, not surprisingly, 8080 Main St. in Houston only a couple of minutes drive to NRG Stadium (and the Astrodome!) Construction is taking place on one side of the hotel, so the entry off Main is a bit tricky. I arrived about 5 p.m. after a 90-miinute trip taking 2 and 1/2 hours due to heavy rain on I-10 followed by rain-related traffic problems from Baytown to southern Houston. Needless to say, I was more than ready to check in. There was one person on duty at the desk. He was busy with some person who had problems with her reservations. So I waited another 20 or so minutes. This was the only person I saw working for the hotel until the next morning. The desk person was nice enough. I had a third-party reservation, so...Sometimes I like to spend the night near the Texas Medical Center as I have fairly often appointments at the Michael E. DeBakey VA Medical Center. If I have one that is during drive time in Houston, either morning or evening, I will get a room rather than face the aggravation of Houston traffic after a drive 90 miles away from Beaumont. I found a decent price on Priceline.com, slightly more than $120 per night at the 8080 Main Hotel. This former Holiday Inn Express is supposedly an independently owned hotel although it can still be found on the ihg.com website. The property is at, not surprisingly, 8080 Main St. in Houston only a couple of minutes drive to NRG Stadium (and the Astrodome!) Construction is taking place on one side of the hotel, so the entry off Main is a bit tricky. I arrived about 5 p.m. after a 90-miinute trip taking 2 and 1/2 hours due to heavy rain on I-10 followed by rain-related traffic problems from Baytown to southern Houston. Needless to say, I was more than ready to check in. There was one person on duty at the desk. He was busy with some person who had problems with her reservations. So I waited another 20 or so minutes. This was the only person I saw working for the hotel until the next morning. The desk person was nice enough. I had a third-party reservation, so it seems each time that happens I always get a room that is as far down the hallway that can be found. The room was nice. A very nice and clean with a comfortable King sized bed. There were amenities such as a mini-fridge, microwave,and coffee maker. A flat screen TV provided at, perhaps. 200 channels.The room and hallways were clean. The one problem I did have was that the ice machine on my (1st) floor was out of order. I had to ride the elevator up to the third floor although the machine there wasn't far from the elevator. There was breakfast the next morning, a buffet-style featuring bacon, scrambled eggs, biscuits and white gravy. There were, as well, various pastries and cereal. The biscuits were a bit on the hard side, as the bagels also appeared. Still, it was a better free breakfast than many places I have stayed. The hotel interior is in need of a makeover as it is kind of dated. The room, upon entry for the first time, smelled kind of stale. I think if the improvements are done right, it could be a good three-star hotel instead of more of a mediocre 2 1/2 star.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Sometimes I like to spend the night near the Texas Medical Center as I have fairly often appointments at the Michael E. DeBakey VA Medical Center. If I have one that is during drive time in Houston, either morning or evening, I will get a room rather than face the aggravation of Houston traffic after a drive 90 miles away from Beaumont. I found a decent price on Priceline.com, slightly more than $120 per night at the 8080 Main Hotel. This former Holiday Inn Express is supposedly an independently owned hotel although it can still be found on the ihg.com website. The property is at, not surprisingly, 8080 Main St. in Houston only a couple of minutes drive to NRG Stadium (and the Astrodome!) Construction is taking place on one side of the hotel, so the entry off Main is a bit tricky. I arrived about 5 p.m. after a 90-miinute trip taking 2 and 1/2 hours due to heavy rain on I-10 followed by rain-related traffic problems from Baytown to southern Houston. Needless to say, I was more than ready to check in. There was one person on duty at the desk. He was busy with some person who had problems with her reservations. So I waited another 20 or so minutes. This was the only person I saw working for the hotel until the next morning. The desk person was nice enough. I had a third-party reservation, so...Sometimes I like to spend the night near the Texas Medical Center as I have fairly often appointments at the Michael E. DeBakey VA Medical Center. If I have one that is during drive time in Houston, either morning or evening, I will get a room rather than face the aggravation of Houston traffic after a drive 90 miles away from Beaumont. I found a decent price on Priceline.com, slightly more than $120 per night at the 8080 Main Hotel. This former Holiday Inn Express is supposedly an independently owned hotel although it can still be found on the ihg.com website. The property is at, not surprisingly, 8080 Main St. in Houston only a couple of minutes drive to NRG Stadium (and the Astrodome!) Construction is taking place on one side of the hotel, so the entry off Main is a bit tricky. I arrived about 5 p.m. after a 90-miinute trip taking 2 and 1/2 hours due to heavy rain on I-10 followed by rain-related traffic problems from Baytown to southern Houston. Needless to say, I was more than ready to check in. There was one person on duty at the desk. He was busy with some person who had problems with her reservations. So I waited another 20 or so minutes. This was the only person I saw working for the hotel until the next morning. The desk person was nice enough. I had a third-party reservation, so it seems each time that happens I always get a room that is as far down the hallway that can be found. The room was nice. A very nice and clean with a comfortable King sized bed. There were amenities such as a mini-fridge, microwave,and coffee maker. A flat screen TV provided at, perhaps. 200 channels.The room and hallways were clean. The one problem I did have was that the ice machine on my (1st) floor was out of order. I had to ride the elevator up to the third floor although the machine there wasn't far from the elevator. There was breakfast the next morning, a buffet-style featuring bacon, scrambled eggs, biscuits and white gravy. There were, as well, various pastries and cereal. The biscuits were a bit on the hard side, as the bagels also appeared. Still, it was a better free breakfast than many places I have stayed. The hotel interior is in need of a makeover as it is kind of dated. The room, upon entry for the first time, smelled kind of stale. I think if the improvements are done right, it could be a good three-star hotel instead of more of a mediocre 2 1/2 star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r385103192-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385103192</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Great for NRG arena visit</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff. Even though the hotel was full for the Copa America game the service was excellent. Clean comfortable room,Nice simple self serve breakfast. Walking distance to the NRG and good eating places.I will try and book at the 8080 whenever I go to the NRG arena again.Good parking and close to 610. I  elive this was originally a Holiday Inn. It is in good condition with good ACMoreShow less</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff. Even though the hotel was full for the Copa America game the service was excellent. Clean comfortable room,Nice simple self serve breakfast. Walking distance to the NRG and good eating places.I will try and book at the 8080 whenever I go to the NRG arena again.Good parking and close to 610. I  elive this was originally a Holiday Inn. It is in good condition with good ACMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r337966681-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337966681</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Location is superb for Museum area and NRG stadium but moldy and dated</t>
+  </si>
+  <si>
+    <t>Upon arrival we immediately asked for a new room because there idea is a suite is below standard of any i have stayed .   It was December 30 2015 and limited availability so we didnt have another choice. There was a refrigerator and cabinet type area with nothing in the cabinets. We are a family of 4 and reserved for 2 adults and 2 children yet there were towels for 3 and had to request more linens from the desk. Breakfast was as expected but depending on the day determined if bottle water was a complimentary drink or if it should be purchased in the vending machine.  On departure we drove past a new Holiday Inn and Suites on Main St toward the Freeway ( away from Kirby on map) we will stay there next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival we immediately asked for a new room because there idea is a suite is below standard of any i have stayed .   It was December 30 2015 and limited availability so we didnt have another choice. There was a refrigerator and cabinet type area with nothing in the cabinets. We are a family of 4 and reserved for 2 adults and 2 children yet there were towels for 3 and had to request more linens from the desk. Breakfast was as expected but depending on the day determined if bottle water was a complimentary drink or if it should be purchased in the vending machine.  On departure we drove past a new Holiday Inn and Suites on Main St toward the Freeway ( away from Kirby on map) we will stay there next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r333964156-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333964156</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Nice property, convenient location</t>
+  </si>
+  <si>
+    <t>Although this property received below-average reviews, I was pleasantly surprised by most aspects of my stay there.  The lobby was nice, the sleeping room was well-appointed, including a large bathroom with good lighting and high ceilings, and the usual range of toiletries for a mid-range hotel.The beds and linens were comfortable and clean, the desk had adequate power outlets and a wired Internet connection, and a small refrigerator and microwave oven were included in the room.  The full, hot breakfast was standard for a HIE, including their great, warm cinnamon rolls.What little contact I had with the staff at the hotel was pleasant, courteous, and efficient.  Most importantly, my wake-up call came as scheduled.  And I appreciated the fact that they offer a discounted rate for guests who are coming to the nearby Medical Center, as I was.MoreShow less</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Although this property received below-average reviews, I was pleasantly surprised by most aspects of my stay there.  The lobby was nice, the sleeping room was well-appointed, including a large bathroom with good lighting and high ceilings, and the usual range of toiletries for a mid-range hotel.The beds and linens were comfortable and clean, the desk had adequate power outlets and a wired Internet connection, and a small refrigerator and microwave oven were included in the room.  The full, hot breakfast was standard for a HIE, including their great, warm cinnamon rolls.What little contact I had with the staff at the hotel was pleasant, courteous, and efficient.  Most importantly, my wake-up call came as scheduled.  And I appreciated the fact that they offer a discounted rate for guests who are coming to the nearby Medical Center, as I was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r328107466-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328107466</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Losing it's reputation</t>
+  </si>
+  <si>
+    <t>We have stayed here at least twice a year for the past 5 years. This hotel has gone downhill fast. We have had to ask for switch rooms our last 3 visits. The rooms are musty, baseboards and shelves need dusted.The bathroom was missing tiles and the walls were dented and scratched. Overall dated and not being kept up. It's really depressing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded December 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed here at least twice a year for the past 5 years. This hotel has gone downhill fast. We have had to ask for switch rooms our last 3 visits. The rooms are musty, baseboards and shelves need dusted.The bathroom was missing tiles and the walls were dented and scratched. Overall dated and not being kept up. It's really depressing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r289015545-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289015545</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Not up to HI Express Standards</t>
+  </si>
+  <si>
+    <t>Find another hotel.   Nasty, is the adjective I would use to describe the hotel, it smelled strongly of mold in the hallways and in the hotel room, there were water spots on the walls and the furniture is old and scratched and looks like something you would find in a very low end hotel.   The hotel lobby decor is bizarre, looks like something from a flea market.   HI needs to pull it's name from this hotel.  On the positive the staff was very nice at the front desk and at the continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Find another hotel.   Nasty, is the adjective I would use to describe the hotel, it smelled strongly of mold in the hallways and in the hotel room, there were water spots on the walls and the furniture is old and scratched and looks like something you would find in a very low end hotel.   The hotel lobby decor is bizarre, looks like something from a flea market.   HI needs to pull it's name from this hotel.  On the positive the staff was very nice at the front desk and at the continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r280099494-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280099494</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>This is NOT your best option</t>
+  </si>
+  <si>
+    <t>I flew into Houston for business and needed a place to stay near the Medical Plaza (Houston Methodist). For some reason every Hotel was packed and the only rooms available were at this Holiday Inn Express.This hotel is not maintained well and the housekeeping is a joke. Although my bed was remade for me, housekeeping forgot (everyday) to restock the bathroom with soaps and towels. The TV in my room was large, but never worked. Everyday that I was at the hotel, I had to call the front desk and have someone sent up to calibrate the TV. When I asked why the TV did not work correctly, the hotel staff said the housekeeping staff sometimes turns on the TVs and it messes them up. (Oh? Cool, (sarcasm). So, housekeeping is watching my TV instead of stocking my room?)Crappy breakfast, run down interiors. This location needs an overhaul and new management. I think Holiday Inn has a reasonably good reputation, this location does not serve them well. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>I flew into Houston for business and needed a place to stay near the Medical Plaza (Houston Methodist). For some reason every Hotel was packed and the only rooms available were at this Holiday Inn Express.This hotel is not maintained well and the housekeeping is a joke. Although my bed was remade for me, housekeeping forgot (everyday) to restock the bathroom with soaps and towels. The TV in my room was large, but never worked. Everyday that I was at the hotel, I had to call the front desk and have someone sent up to calibrate the TV. When I asked why the TV did not work correctly, the hotel staff said the housekeeping staff sometimes turns on the TVs and it messes them up. (Oh? Cool, (sarcasm). So, housekeeping is watching my TV instead of stocking my room?)Crappy breakfast, run down interiors. This location needs an overhaul and new management. I think Holiday Inn has a reasonably good reputation, this location does not serve them well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r279794584-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279794584</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Would not stay here again, can't understand the positive reviews</t>
+  </si>
+  <si>
+    <t>As the others stated, location near the Med Center is great, plus there is free parking, and free WiFi...  but that doesn't make up for the fact that this is a dumpy place.  It's surprising - we've stayed at terrific Holiday Inn Express locations.  This is not one of them.  It's the kind of place where the ceiling is patched in several places, but they didn't bother to sand it or even finish painting it.  The housekeeping is poor - I had to dust my own room with a washcloth.  Apart from the beverages, cereal and cinnamon buns, the breakfast was lousy.  The carpet and furniture are dingy and the handicapped room we got stuck with had filthy air vents, a weird shower...  It overlooked the entrance drive so the curtains had to be kept shut for privacy, exacerbating the dreary lighting in the rooms.  Nothing smells fresh or clean.  You can do better at the Courtyard Marriott up the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded June 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2015</t>
+  </si>
+  <si>
+    <t>As the others stated, location near the Med Center is great, plus there is free parking, and free WiFi...  but that doesn't make up for the fact that this is a dumpy place.  It's surprising - we've stayed at terrific Holiday Inn Express locations.  This is not one of them.  It's the kind of place where the ceiling is patched in several places, but they didn't bother to sand it or even finish painting it.  The housekeeping is poor - I had to dust my own room with a washcloth.  Apart from the beverages, cereal and cinnamon buns, the breakfast was lousy.  The carpet and furniture are dingy and the handicapped room we got stuck with had filthy air vents, a weird shower...  It overlooked the entrance drive so the curtains had to be kept shut for privacy, exacerbating the dreary lighting in the rooms.  Nothing smells fresh or clean.  You can do better at the Courtyard Marriott up the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r273346946-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273346946</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Extremely close to MD ANDERSON MEDICAL CENTER</t>
+  </si>
+  <si>
+    <t>Nice and friendly hotel. Very easy to get to the Medical Center if you need to go there.  They even have a complimentary bus. The included breakfast is very convenient and there are a lot of resturaunts in the area.when making reservations ask for a medical rate if you are going to MD Anderson. It saves a little money. We will stay there again when we return to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Nice and friendly hotel. Very easy to get to the Medical Center if you need to go there.  They even have a complimentary bus. The included breakfast is very convenient and there are a lot of resturaunts in the area.when making reservations ask for a medical rate if you are going to MD Anderson. It saves a little money. We will stay there again when we return to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r272717425-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272717425</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Rooms clean, average service</t>
+  </si>
+  <si>
+    <t>We had a reservation and arrived 45 minutes before official check in time. We were told we had to wait even after we had been driving 9 hours to get there. We were exhausted, but waited in our car til we could check in.The room was clean and we did have good maid service.Food was typical holiday inn breakfast.Since there was not an ice machine on our floor, I used the stairway several times to get some. The stairway was not clean and needed to be vacuumed. There were two water bottle caps that stayed on the stairway floor for three days.And I would seriously change decorators. The room had brown and tan carpet, yellow walls, gold bedskirt, maroon valance, green curtains and pictures hung way too high.The window of our room was defective. The double pane was so fogged between the panes that we could not see outside to even tell what the weather was like.Not likely to stay here again. But would say the problems we encountered were more cosmetic. They didn't charge extra for parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>We had a reservation and arrived 45 minutes before official check in time. We were told we had to wait even after we had been driving 9 hours to get there. We were exhausted, but waited in our car til we could check in.The room was clean and we did have good maid service.Food was typical holiday inn breakfast.Since there was not an ice machine on our floor, I used the stairway several times to get some. The stairway was not clean and needed to be vacuumed. There were two water bottle caps that stayed on the stairway floor for three days.And I would seriously change decorators. The room had brown and tan carpet, yellow walls, gold bedskirt, maroon valance, green curtains and pictures hung way too high.The window of our room was defective. The double pane was so fogged between the panes that we could not see outside to even tell what the weather was like.Not likely to stay here again. But would say the problems we encountered were more cosmetic. They didn't charge extra for parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r266818111-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266818111</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel to Stay</t>
+  </si>
+  <si>
+    <t>This is a nice hotel to stay if you are in for business purpose. Very good, well maintained rooms, with free wifi and courteous staff. They have a decent parking too.The breakfast is also very good. And have a small business center if you need to use it for any purpose.This is overall like any other Holiday Inn Express property with necessary facilities for a business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel to stay if you are in for business purpose. Very good, well maintained rooms, with free wifi and courteous staff. They have a decent parking too.The breakfast is also very good. And have a small business center if you need to use it for any purpose.This is overall like any other Holiday Inn Express property with necessary facilities for a business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r260333610-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260333610</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Very nice rooms. Great location- very close to Houston rodeo.</t>
+  </si>
+  <si>
+    <t>The only thing keeping me from giving all five stars is the construction right outside your window. And it starts EARLY! But other than that, this was a comfortable and convenient place to stay during the rodeo.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>The only thing keeping me from giving all five stars is the construction right outside your window. And it starts EARLY! But other than that, this was a comfortable and convenient place to stay during the rodeo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r259595197-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259595197</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Still a Great Stay</t>
+  </si>
+  <si>
+    <t>Whether we come in March during Spring break or fall it is always a nice place to stay. We arrived on a Tues late and although our double room was gonna they accommodated us with a king and nice rollaway immediately,  and then changed us mid day the next day. Fresh cookies are still avail in the lobby and the staff and on site manager worked hard to keep up with the busy crowd well flowing. Bacon was on the breakfast our first morning ..sure gonna be a nice stay. The bed pillows are avail in 2 choices firm or soft and plentiful. CVS is next door as well as Capt Benny's for seafood. Fiesta grocery is across the street. Shuttle is avail on request and came in handy on rainy day. Whether your at MD Anderson or Reliant, it's pretty handy to many options with little driving to getting lost. Keep it in your favorites! MoreShow less</t>
+  </si>
+  <si>
+    <t>Whether we come in March during Spring break or fall it is always a nice place to stay. We arrived on a Tues late and although our double room was gonna they accommodated us with a king and nice rollaway immediately,  and then changed us mid day the next day. Fresh cookies are still avail in the lobby and the staff and on site manager worked hard to keep up with the busy crowd well flowing. Bacon was on the breakfast our first morning ..sure gonna be a nice stay. The bed pillows are avail in 2 choices firm or soft and plentiful. CVS is next door as well as Capt Benny's for seafood. Fiesta grocery is across the street. Shuttle is avail on request and came in handy on rainy day. Whether your at MD Anderson or Reliant, it's pretty handy to many options with little driving to getting lost. Keep it in your favorites! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r257663243-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257663243</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This hotel had the most courteous staff. The front desk staff was very informative, the breakfast was really good and the room was very nice. We had only made a reservation for two days and ended up  to stay another night and they were very accommodating as they were booked for the rodeo. The shuttle driver Jessica was great on time and even let us know what was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel had the most courteous staff. The front desk staff was very informative, the breakfast was really good and the room was very nice. We had only made a reservation for two days and ended up  to stay another night and they were very accommodating as they were booked for the rodeo. The shuttle driver Jessica was great on time and even let us know what was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r233456861-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233456861</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd time's a charm? </t>
+  </si>
+  <si>
+    <t>Do these people really understand running a hotel?
+We arrived after a long drive to Houston and were initially checked in quite quickly. However, as we approached our room it became obvious that the door was ajar - it had actually been propped open. 
+Upon returning to the front desk to explain, they sent a staffer to inspect it. He then explained that they have been replacing all of the door locks and the workmen must have left it ajar. But we soon discovered the real reason - the door did not latch ... at all. If we closed the door, anyone could just push it open from the hall. 
+Upon returning to the front desk to explain, we were greeted with a look of bewilderment that we considered this to be a problem. The clerk went to inspect for herself and returned to assign us a different room. Moments later we were given keys to a different room and sent on our way. This time the keys would not work - we tried several times. Only to return to the front desk to explain. 
+The clerk left the desk once again, this time with master keys in hand. But even she could not unlock the door. After several attempts, we all began to walk back to the front. Then a man emerged from the room to inquire why we had been trying to get into his room. 
+We apologized...Do these people really understand running a hotel?We arrived after a long drive to Houston and were initially checked in quite quickly. However, as we approached our room it became obvious that the door was ajar - it had actually been propped open. Upon returning to the front desk to explain, they sent a staffer to inspect it. He then explained that they have been replacing all of the door locks and the workmen must have left it ajar. But we soon discovered the real reason - the door did not latch ... at all. If we closed the door, anyone could just push it open from the hall. Upon returning to the front desk to explain, we were greeted with a look of bewilderment that we considered this to be a problem. The clerk went to inspect for herself and returned to assign us a different room. Moments later we were given keys to a different room and sent on our way. This time the keys would not work - we tried several times. Only to return to the front desk to explain. The clerk left the desk once again, this time with master keys in hand. But even she could not unlock the door. After several attempts, we all began to walk back to the front. Then a man emerged from the room to inquire why we had been trying to get into his room. We apologized and proceeded back to the front desk ... again. This time I was told that they were sold out for the night. As I began to search for another hotel nearby, the other staffer began checking rooms (seemingly, door-to-door) and shortly returned with word that he'd found one that was not occupied - I always thought the front desk computer could do that for you - we also had him confirm that the locks actually worked too. I once again approached the front desk to obtain a new key. This time, the clerk had to ask me my name so she could look me up in their system - really? Finally, inside a seemingly secure room, my husband set out to get ice only to find that there was no ice machine on our floor - whatever. Next time I need to stay in Houston, I'll spend the extra $100 for a real hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Do these people really understand running a hotel?
+We arrived after a long drive to Houston and were initially checked in quite quickly. However, as we approached our room it became obvious that the door was ajar - it had actually been propped open. 
+Upon returning to the front desk to explain, they sent a staffer to inspect it. He then explained that they have been replacing all of the door locks and the workmen must have left it ajar. But we soon discovered the real reason - the door did not latch ... at all. If we closed the door, anyone could just push it open from the hall. 
+Upon returning to the front desk to explain, we were greeted with a look of bewilderment that we considered this to be a problem. The clerk went to inspect for herself and returned to assign us a different room. Moments later we were given keys to a different room and sent on our way. This time the keys would not work - we tried several times. Only to return to the front desk to explain. 
+The clerk left the desk once again, this time with master keys in hand. But even she could not unlock the door. After several attempts, we all began to walk back to the front. Then a man emerged from the room to inquire why we had been trying to get into his room. 
+We apologized...Do these people really understand running a hotel?We arrived after a long drive to Houston and were initially checked in quite quickly. However, as we approached our room it became obvious that the door was ajar - it had actually been propped open. Upon returning to the front desk to explain, they sent a staffer to inspect it. He then explained that they have been replacing all of the door locks and the workmen must have left it ajar. But we soon discovered the real reason - the door did not latch ... at all. If we closed the door, anyone could just push it open from the hall. Upon returning to the front desk to explain, we were greeted with a look of bewilderment that we considered this to be a problem. The clerk went to inspect for herself and returned to assign us a different room. Moments later we were given keys to a different room and sent on our way. This time the keys would not work - we tried several times. Only to return to the front desk to explain. The clerk left the desk once again, this time with master keys in hand. But even she could not unlock the door. After several attempts, we all began to walk back to the front. Then a man emerged from the room to inquire why we had been trying to get into his room. We apologized and proceeded back to the front desk ... again. This time I was told that they were sold out for the night. As I began to search for another hotel nearby, the other staffer began checking rooms (seemingly, door-to-door) and shortly returned with word that he'd found one that was not occupied - I always thought the front desk computer could do that for you - we also had him confirm that the locks actually worked too. I once again approached the front desk to obtain a new key. This time, the clerk had to ask me my name so she could look me up in their system - really? Finally, inside a seemingly secure room, my husband set out to get ice only to find that there was no ice machine on our floor - whatever. Next time I need to stay in Houston, I'll spend the extra $100 for a real hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r229698075-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229698075</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Won't stay anywhere else in Houston</t>
+  </si>
+  <si>
+    <t>We went there because of it's proximity to the Medical Center.  I needed to be able to work and I was able to bring my laptop and work at the desk in my room.  There was plenty of room with two beds, the desk and chair, refrigerator and microwave.  The hotel appears older, but is well-maintained. There are laundry facilities and a wonderful breakfast bar. In the evenings there are cookies and coffee in the lobby and the staff is so very friendly!  Everyone from the front desk staff (Erica, Debbie and Gerry), to the shuttle driver (Jessica), the lady in the kitchen (Francy), and even the housekeepers treated us like they were happy we stayed there.  The lobby is beautiful and there is a sitting area on the second floor.  There is also a place to work on the first floor if you don't bring a laptop.  They have some computers and printers and they can fax for you also.  We were very comfortable there and I wouldn't want to stay anywhere else if we return to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>We went there because of it's proximity to the Medical Center.  I needed to be able to work and I was able to bring my laptop and work at the desk in my room.  There was plenty of room with two beds, the desk and chair, refrigerator and microwave.  The hotel appears older, but is well-maintained. There are laundry facilities and a wonderful breakfast bar. In the evenings there are cookies and coffee in the lobby and the staff is so very friendly!  Everyone from the front desk staff (Erica, Debbie and Gerry), to the shuttle driver (Jessica), the lady in the kitchen (Francy), and even the housekeepers treated us like they were happy we stayed there.  The lobby is beautiful and there is a sitting area on the second floor.  There is also a place to work on the first floor if you don't bring a laptop.  They have some computers and printers and they can fax for you also.  We were very comfortable there and I wouldn't want to stay anywhere else if we return to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r227568552-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227568552</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>I have been in better</t>
+  </si>
+  <si>
+    <t>Some of the staff were difficult to understand, especially those at the front desk during evenings.  The walls, especially in the bathroom were dirty with torn wall paper.  We stayed because of the shuttle to the hospital.  But it didn't operate on weekends and we sometimes waited over an hour for a return trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Some of the staff were difficult to understand, especially those at the front desk during evenings.  The walls, especially in the bathroom were dirty with torn wall paper.  We stayed because of the shuttle to the hospital.  But it didn't operate on weekends and we sometimes waited over an hour for a return trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r223892055-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223892055</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Classy With a K</t>
+  </si>
+  <si>
+    <t>When a person or place tries to be classy, but really misses the mark, we say it was "classy with a K". That describes this hotel, perfectly.The hotel offered shuttle service to the medical center, a necessity for us. But, the schedule was rigid, and could result in a long wait (as much as 55 minutes) for a return trip to the hotel.The HIE offered a free "hot breakfast" each morning, but most of the hot items were cold and dry, and quite unappetizing.Many staff members were friendly and efficient. Others, not so much, especially those who got very defensive when we suggested a change that might improve staff-guest communications.The decor tried to approximate old world European charm. The result was dreary and dull.Not a place we would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>When a person or place tries to be classy, but really misses the mark, we say it was "classy with a K". That describes this hotel, perfectly.The hotel offered shuttle service to the medical center, a necessity for us. But, the schedule was rigid, and could result in a long wait (as much as 55 minutes) for a return trip to the hotel.The HIE offered a free "hot breakfast" each morning, but most of the hot items were cold and dry, and quite unappetizing.Many staff members were friendly and efficient. Others, not so much, especially those who got very defensive when we suggested a change that might improve staff-guest communications.The decor tried to approximate old world European charm. The result was dreary and dull.Not a place we would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r205797021-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205797021</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>Jessica, Raven, Francie, Debbie, and Nicole (as well as Mgr. Don) really helped with our company block of rooms and changes we made during the week. Always willing to help! Jessica smiling face and welcome personality made the morning shuttle rides easy. Job well done by all!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Jessica, Raven, Francie, Debbie, and Nicole (as well as Mgr. Don) really helped with our company block of rooms and changes we made during the week. Always willing to help! Jessica smiling face and welcome personality made the morning shuttle rides easy. Job well done by all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r203921418-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203921418</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Holiday Express,H-MedCtr. is my home away from home! Thanks Debbie!</t>
+  </si>
+  <si>
+    <t>I have had to make several trips to MDAnderson Med Ctr. recently and felt that I already had a very heavy weight on my shoulders. Right from the start, Debbie made me feel like I was at home and had known the staff for along time. She was the first one to show compassion and caring, but Jessica, who drove the shuttle to the hospital was close behind. Gerry, Raven, and Nicole also, and Ron who picked us up from the hospital. The breakfast crew is amazing; a sit down dining room and every breakfast item you can imagine, to choose from.I apologize if I left someone off this list, because they are all very special to me. When I call for a reservation, it is taken care of immediately and I'm told to not worry. When I check in, I am treated like family!  The beds there are the most comfortable( I would love to find a mattress and pillows like that for home).  I love the convenience of the refrigerator ,microwave and my internet!  The location could not be better, because Target,CVS,Walgreens,Kroger's, etc., as well as many dining places are walking distance or a few blocks away. The main thing I want to share besides my fondness and family feelings for my people(staff), and my medical rate is a special one for MDA patients, is that I am secure and safe at Holiday Express! I am not afraid...I have had to make several trips to MDAnderson Med Ctr. recently and felt that I already had a very heavy weight on my shoulders. Right from the start, Debbie made me feel like I was at home and had known the staff for along time. She was the first one to show compassion and caring, but Jessica, who drove the shuttle to the hospital was close behind. Gerry, Raven, and Nicole also, and Ron who picked us up from the hospital. The breakfast crew is amazing; a sit down dining room and every breakfast item you can imagine, to choose from.I apologize if I left someone off this list, because they are all very special to me. When I call for a reservation, it is taken care of immediately and I'm told to not worry. When I check in, I am treated like family!  The beds there are the most comfortable( I would love to find a mattress and pillows like that for home).  I love the convenience of the refrigerator ,microwave and my internet!  The location could not be better, because Target,CVS,Walgreens,Kroger's, etc., as well as many dining places are walking distance or a few blocks away. The main thing I want to share besides my fondness and family feelings for my people(staff), and my medical rate is a special one for MDA patients, is that I am secure and safe at Holiday Express! I am not afraid to go outside because there is a watchman out there. Holiday Express,Hotel &amp; Suites, Houston Medical Center is the best! Thank you very much, Brenda SnowMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Donald S, General Manager at Hotel Ylem, responded to this reviewResponded May 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2014</t>
+  </si>
+  <si>
+    <t>I have had to make several trips to MDAnderson Med Ctr. recently and felt that I already had a very heavy weight on my shoulders. Right from the start, Debbie made me feel like I was at home and had known the staff for along time. She was the first one to show compassion and caring, but Jessica, who drove the shuttle to the hospital was close behind. Gerry, Raven, and Nicole also, and Ron who picked us up from the hospital. The breakfast crew is amazing; a sit down dining room and every breakfast item you can imagine, to choose from.I apologize if I left someone off this list, because they are all very special to me. When I call for a reservation, it is taken care of immediately and I'm told to not worry. When I check in, I am treated like family!  The beds there are the most comfortable( I would love to find a mattress and pillows like that for home).  I love the convenience of the refrigerator ,microwave and my internet!  The location could not be better, because Target,CVS,Walgreens,Kroger's, etc., as well as many dining places are walking distance or a few blocks away. The main thing I want to share besides my fondness and family feelings for my people(staff), and my medical rate is a special one for MDA patients, is that I am secure and safe at Holiday Express! I am not afraid...I have had to make several trips to MDAnderson Med Ctr. recently and felt that I already had a very heavy weight on my shoulders. Right from the start, Debbie made me feel like I was at home and had known the staff for along time. She was the first one to show compassion and caring, but Jessica, who drove the shuttle to the hospital was close behind. Gerry, Raven, and Nicole also, and Ron who picked us up from the hospital. The breakfast crew is amazing; a sit down dining room and every breakfast item you can imagine, to choose from.I apologize if I left someone off this list, because they are all very special to me. When I call for a reservation, it is taken care of immediately and I'm told to not worry. When I check in, I am treated like family!  The beds there are the most comfortable( I would love to find a mattress and pillows like that for home).  I love the convenience of the refrigerator ,microwave and my internet!  The location could not be better, because Target,CVS,Walgreens,Kroger's, etc., as well as many dining places are walking distance or a few blocks away. The main thing I want to share besides my fondness and family feelings for my people(staff), and my medical rate is a special one for MDA patients, is that I am secure and safe at Holiday Express! I am not afraid to go outside because there is a watchman out there. Holiday Express,Hotel &amp; Suites, Houston Medical Center is the best! Thank you very much, Brenda SnowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r195601170-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195601170</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Reservation cancelled w/o notice</t>
+  </si>
+  <si>
+    <t>In my years of traveling, I've never had an issue being "bumped" until this week. I had a last minute early morning meeting come up in Houston (I live several hours away), so I made a last minute reservation through the IHG website, drove 3.5 hours to this property, only to find out they cancelled my reservation, and had no rooms available.  I had an outdated credit card on file, so they cancelled it, without even trying to call or notify me.  Apparently it was a very busy night in Houston b/c there were no rooms there, at any other Houston area IHG property, or at any other major hotel brand.  The desk clerk seemed more angry at me than I was at her, how dare I get a new credit card? (Thanks for that one Target). Neither the desk clerk or the IHG customer service staff was able to find me a room at any of their properties, so I was on my own to search the city of Houston for a hotel / motel.  I've been a loyal IHG club member for years, staying dozens of nights per year, and they left me out to dry (although it was actually pouring out) with nowhere to stay.  I guess it's time to abandon the IHG club and go Marriott or Hilton once I use up my remaining points.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>In my years of traveling, I've never had an issue being "bumped" until this week. I had a last minute early morning meeting come up in Houston (I live several hours away), so I made a last minute reservation through the IHG website, drove 3.5 hours to this property, only to find out they cancelled my reservation, and had no rooms available.  I had an outdated credit card on file, so they cancelled it, without even trying to call or notify me.  Apparently it was a very busy night in Houston b/c there were no rooms there, at any other Houston area IHG property, or at any other major hotel brand.  The desk clerk seemed more angry at me than I was at her, how dare I get a new credit card? (Thanks for that one Target). Neither the desk clerk or the IHG customer service staff was able to find me a room at any of their properties, so I was on my own to search the city of Houston for a hotel / motel.  I've been a loyal IHG club member for years, staying dozens of nights per year, and they left me out to dry (although it was actually pouring out) with nowhere to stay.  I guess it's time to abandon the IHG club and go Marriott or Hilton once I use up my remaining points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r193000663-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193000663</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Weather required extended trip...</t>
+  </si>
+  <si>
+    <t>In Houston on business but flight cancelled home due to snow and ice.  Hotel was accommodated me for an extended stay, did not have to change rooms, and charged me the lesser rate booked months before.Breakfast is free; offering  something for everyone in a fast-food type menu; shuttle service provided transportation to and from Baylor College of Medicine; and hotel contracted for return trip to airport.Decor somewhat dated but room and bath were clean and odorless.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>In Houston on business but flight cancelled home due to snow and ice.  Hotel was accommodated me for an extended stay, did not have to change rooms, and charged me the lesser rate booked months before.Breakfast is free; offering  something for everyone in a fast-food type menu; shuttle service provided transportation to and from Baylor College of Medicine; and hotel contracted for return trip to airport.Decor somewhat dated but room and bath were clean and odorless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r192687103-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192687103</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Making the bad times better</t>
+  </si>
+  <si>
+    <t>Since so many people who stay at this hotel are in Houston for medical reasons, it is so important for them to be warmly welcomed and for their stay to be as pleasant as possible.  That is where the wonderful staff at this hotel come into play.  Debbie, Gerry, Nicole, Raven and Andy at the front desk do a wonderful job in an efficient manner.  All problems are handled immediately.  Jessica and Ron, the shuttle drivers are humorous and helpful always.  Francy the breakfast buffet hostess is so friendly and always does her best to help everyone have a great experience.  Donnie, the GM and Erica in Sales are serious about the quality of this hotel.  Erika, head of Housekeeping, oversees a staff committed to providing clean and hospitable rooms with amenities from Bath and Body to soothe away cares and anxiety.  Just a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Since so many people who stay at this hotel are in Houston for medical reasons, it is so important for them to be warmly welcomed and for their stay to be as pleasant as possible.  That is where the wonderful staff at this hotel come into play.  Debbie, Gerry, Nicole, Raven and Andy at the front desk do a wonderful job in an efficient manner.  All problems are handled immediately.  Jessica and Ron, the shuttle drivers are humorous and helpful always.  Francy the breakfast buffet hostess is so friendly and always does her best to help everyone have a great experience.  Donnie, the GM and Erica in Sales are serious about the quality of this hotel.  Erika, head of Housekeeping, oversees a staff committed to providing clean and hospitable rooms with amenities from Bath and Body to soothe away cares and anxiety.  Just a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r191741363-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191741363</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Simply The Best!</t>
+  </si>
+  <si>
+    <t>I can't say enough positive or give enough praise to the staff of this hotel. From the front desk staff, Debbie, Gerry, Andy, and Nicole to the kitchen staff of Francy and Amanda, the housekeepers on our floor, Alba and Lorena, and our kind shuttle drivers Jessica and Ronnie - thank you from the bottom of our hearts. You made our medical stay bearable. Each of you were compassionate, caring, and professional. Our room was always spotless, our breakfast delicious, our accommodations perfect, and our shuttle rides were safe and timely.  I hope when we need to return to MD Anderson again we can count on staying with you! If I forgot anyone in particular, I apologize because everyone involved deserves big kudos. You've made your supervisors and owners proud!MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2014</t>
+  </si>
+  <si>
+    <t>I can't say enough positive or give enough praise to the staff of this hotel. From the front desk staff, Debbie, Gerry, Andy, and Nicole to the kitchen staff of Francy and Amanda, the housekeepers on our floor, Alba and Lorena, and our kind shuttle drivers Jessica and Ronnie - thank you from the bottom of our hearts. You made our medical stay bearable. Each of you were compassionate, caring, and professional. Our room was always spotless, our breakfast delicious, our accommodations perfect, and our shuttle rides were safe and timely.  I hope when we need to return to MD Anderson again we can count on staying with you! If I forgot anyone in particular, I apologize because everyone involved deserves big kudos. You've made your supervisors and owners proud!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r190877084-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190877084</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times because of its proximity to the hospital area.  This time our stay was expected to be overnight but due to further medical tests, we stayed a total of four nights, five days.  The staff is always courteous and I like that they greet everyone entering the lobby or walking down the hall with a smile.  The rooms are clean, beds are comfortable and the breakfast is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, Manager at Hotel Ylem, responded to this reviewResponded January 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times because of its proximity to the hospital area.  This time our stay was expected to be overnight but due to further medical tests, we stayed a total of four nights, five days.  The staff is always courteous and I like that they greet everyone entering the lobby or walking down the hall with a smile.  The rooms are clean, beds are comfortable and the breakfast is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r184985015-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184985015</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Great value, good experience</t>
+  </si>
+  <si>
+    <t>9 day stay, then an 11 day stay for medical reasons.  Rooms are nice size, clean.  Beds are ok.  I appreciated the medical rate and the shuttle. Jessica (shuttle driver) was very friendly and always made sure I got out of the van safely.  Francy (breakfast attendant) and Debby &amp; Chondra (front desk) were very customer oriented and always wanting to help in any way possible.  Breakfast had lots of choices.  Internet was adequate for my needs. Would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, Manager at Hotel Ylem, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>9 day stay, then an 11 day stay for medical reasons.  Rooms are nice size, clean.  Beds are ok.  I appreciated the medical rate and the shuttle. Jessica (shuttle driver) was very friendly and always made sure I got out of the van safely.  Francy (breakfast attendant) and Debby &amp; Chondra (front desk) were very customer oriented and always wanting to help in any way possible.  Breakfast had lots of choices.  Internet was adequate for my needs. Would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r183851941-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183851941</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>pretty standard, really bad internet</t>
+  </si>
+  <si>
+    <t>great tv with directtv, nice location, decent rooms...   i am sitting here writing this on 3g because their internet is THAT bad. calling this high speed is insulting. i stayed at work late every night sine the internet was veritably unusable for even simple browsing!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, Manager at Hotel Ylem, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>great tv with directtv, nice location, decent rooms...   i am sitting here writing this on 3g because their internet is THAT bad. calling this high speed is insulting. i stayed at work late every night sine the internet was veritably unusable for even simple browsing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r181605762-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181605762</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Like Coming Home</t>
+  </si>
+  <si>
+    <t>We arrived at the Holiday Inn Express Hotel &amp; Suites Houston Medical Center on October the 6th and it was like coming home.  I was met with a big smile and great big hug by Debbie at the front desk.  Jessica, the daytime shuttle driver, Chondra , front desk at night, Francy, the buffet sweetie, Donnie, front desk and Ron, night shuttle driver all have made our stay here so pleasurable.  The hotel is clean and the 3rd floor has been so quiet.  The breakfast buffet is excellent and the shuttle is just so wonderful, running Monday through Friday.  Stayed here for 11 days in July because of Mom's medical procedures and have been here 13 days so far this time.  The fact that there is a great washer and dryer makes it so nice when you have to be here for an extended time.  There is a special rate for those staying here for medical appointments so be sure and stipulate that when making reservations.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at the Holiday Inn Express Hotel &amp; Suites Houston Medical Center on October the 6th and it was like coming home.  I was met with a big smile and great big hug by Debbie at the front desk.  Jessica, the daytime shuttle driver, Chondra , front desk at night, Francy, the buffet sweetie, Donnie, front desk and Ron, night shuttle driver all have made our stay here so pleasurable.  The hotel is clean and the 3rd floor has been so quiet.  The breakfast buffet is excellent and the shuttle is just so wonderful, running Monday through Friday.  Stayed here for 11 days in July because of Mom's medical procedures and have been here 13 days so far this time.  The fact that there is a great washer and dryer makes it so nice when you have to be here for an extended time.  There is a special rate for those staying here for medical appointments so be sure and stipulate that when making reservations.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r181207586-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181207586</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Good hotel for medical center and good medical center rate.</t>
+  </si>
+  <si>
+    <t>The hotel lobby smelled bad so I thought it would be horrible but the room was spacious and didn't smell bad. The staff was friendly and helpful. Overall it was a good value and in a good location for medical purposes. It also had plenty of restaurants close by and a shuttle. I didn't use the shuttle but it was nice to know it was available. The complimentary breakfast, cookies and coffee were a nice addition to my stay.  They also had a small area with a microwave, mini fridge and utensils in the room. The bathtub was small and the bed was a little lumpy. It could use an update but it was still a good stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>The hotel lobby smelled bad so I thought it would be horrible but the room was spacious and didn't smell bad. The staff was friendly and helpful. Overall it was a good value and in a good location for medical purposes. It also had plenty of restaurants close by and a shuttle. I didn't use the shuttle but it was nice to know it was available. The complimentary breakfast, cookies and coffee were a nice addition to my stay.  They also had a small area with a microwave, mini fridge and utensils in the room. The bathtub was small and the bed was a little lumpy. It could use an update but it was still a good stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r178828586-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178828586</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Very impressed</t>
+  </si>
+  <si>
+    <t>I was there with my mother for some appointments I had at MD Anderson.  Hotel was great!  Room was very clean, although there was a hole in the wall from where it looked like they had to do some work for whatever reason but we were able to cover it up and it wasn't a bother.  Didn't have to use the shuttle this time around but we did see it running and heard the front desk calling for pickups at MD so I'm assuming that would have been great too if we'd used it.  Continental breakfast was pretty decent.  Small egg omelets, bacon, biscuits, cereal, juice and even pancakes.  Great for a quick bite before heading out.  It's close to almost everything you need (restaurants and groceries) and it's a short drive to MD if you're driving yourself around.  The only complaint I have (and it's really not even a complaint) is that the lobby had a very weird, armpit smell to it.  Overall I was very impressed with the place and will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I was there with my mother for some appointments I had at MD Anderson.  Hotel was great!  Room was very clean, although there was a hole in the wall from where it looked like they had to do some work for whatever reason but we were able to cover it up and it wasn't a bother.  Didn't have to use the shuttle this time around but we did see it running and heard the front desk calling for pickups at MD so I'm assuming that would have been great too if we'd used it.  Continental breakfast was pretty decent.  Small egg omelets, bacon, biscuits, cereal, juice and even pancakes.  Great for a quick bite before heading out.  It's close to almost everything you need (restaurants and groceries) and it's a short drive to MD if you're driving yourself around.  The only complaint I have (and it's really not even a complaint) is that the lobby had a very weird, armpit smell to it.  Overall I was very impressed with the place and will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r176051112-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176051112</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Great place, great people!</t>
+  </si>
+  <si>
+    <t>My parents and I stayed there on the suites for medical reasons and the location is unbeatable (7 min to hospitals, walking distance to supermarkets, mall, restaurants, pharmacy, all!) the price was also a plus in the lower side of same category places, shuttle service is a must in these cases and they performed an excellent job catering my parents specific needs. Plus the staff! The staff is great, they all went over their heads to try to accommodate our every needs, they were corteous, polite, always smiling and providing very welcomed tips on how to handle in &amp; about Houston. Special mention to Erica (management), Jessica (shuttle), Andy and Debbie (front desk), and also the other Erica (cleaning) Kudos to all! I'd recommend this place and their staff eyes shut !MoreShow less</t>
+  </si>
+  <si>
+    <t>My parents and I stayed there on the suites for medical reasons and the location is unbeatable (7 min to hospitals, walking distance to supermarkets, mall, restaurants, pharmacy, all!) the price was also a plus in the lower side of same category places, shuttle service is a must in these cases and they performed an excellent job catering my parents specific needs. Plus the staff! The staff is great, they all went over their heads to try to accommodate our every needs, they were corteous, polite, always smiling and providing very welcomed tips on how to handle in &amp; about Houston. Special mention to Erica (management), Jessica (shuttle), Andy and Debbie (front desk), and also the other Erica (cleaning) Kudos to all! I'd recommend this place and their staff eyes shut !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r175184287-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175184287</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay for reliant park</t>
+  </si>
+  <si>
+    <t>Shuttle transported us to and from football game. Staff recommended great restaurants in the area. Convenient to stores and gas stations.Our TV had a color problem we reported it, staff wasn't able to correct it.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Shuttle transported us to and from football game. Staff recommended great restaurants in the area. Convenient to stores and gas stations.Our TV had a color problem we reported it, staff wasn't able to correct it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r171990402-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171990402</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Clean room, great hospitality</t>
+  </si>
+  <si>
+    <t>My husband and I made an impromptu trip to Houston and ended up staying at this hotel at the last minute.  The room was clean and comfortable and breakfast was very good.  The thing that impressed us the most was the hospitality of the entire hotel staff from the front desk to the breakfast attendant to the janitorial staff.  Everyone made eye contact, smiled and even spoke pleasantly to us.  I accidentally left my purse in the dining area, and when I realized it 30 minutes later it had been taken to the front desk with nary a business card out of place.  We will definitely stay again any time we are in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>GMMedicalCenter, General Manager at Hotel Ylem, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I made an impromptu trip to Houston and ended up staying at this hotel at the last minute.  The room was clean and comfortable and breakfast was very good.  The thing that impressed us the most was the hospitality of the entire hotel staff from the front desk to the breakfast attendant to the janitorial staff.  Everyone made eye contact, smiled and even spoke pleasantly to us.  I accidentally left my purse in the dining area, and when I realized it 30 minutes later it had been taken to the front desk with nary a business card out of place.  We will definitely stay again any time we are in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r170923553-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170923553</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>the next best thing to the equator</t>
+  </si>
+  <si>
+    <t>What's the next best thing to sweating at the equator?  Maybe July in Houston at a Holiday Inn Express festooned with decorative furnishings from the Asian sub-continent. 
+The elevator was a sauna. It only has to go 3 floors, but whether riding it up or down, your brow will be dewy before the doors re-open. 
+Never before had I seen a room A/C fan control that only switched between "Lo" and "Auto" -- which in this case meant exactly the same thing! 
+Some buildings are able to control the humidity inside which has to be challenging in Houston. This place was not up to the challenge. Between about midnight and 7 a.m., the room temperature could dip down into the 70's, but it was still sticky with the mugginess inside. 
+The hallways and entry were well lit and clean, and the daily maid service to the room was ok. No problem with front desk check-in.  The neighborhood might be a little sketchy, but we did not have any security issues personally or with our parked vehicle. There are grocery stores and restaurants that are not too far. Wi-Fi was free, but it was slow at times. Flat screen TV worked well, plenty of satellite TV channels. There were cookies in the lobby at check-in, which was nice. 
+So I'm not saying that it was un-livable or totally horrible. It was possible to sleep, mostly, kept us out of the weather,...What's the next best thing to sweating at the equator?  Maybe July in Houston at a Holiday Inn Express festooned with decorative furnishings from the Asian sub-continent. The elevator was a sauna. It only has to go 3 floors, but whether riding it up or down, your brow will be dewy before the doors re-open. Never before had I seen a room A/C fan control that only switched between "Lo" and "Auto" -- which in this case meant exactly the same thing! Some buildings are able to control the humidity inside which has to be challenging in Houston. This place was not up to the challenge. Between about midnight and 7 a.m., the room temperature could dip down into the 70's, but it was still sticky with the mugginess inside. The hallways and entry were well lit and clean, and the daily maid service to the room was ok. No problem with front desk check-in.  The neighborhood might be a little sketchy, but we did not have any security issues personally or with our parked vehicle. There are grocery stores and restaurants that are not too far. Wi-Fi was free, but it was slow at times. Flat screen TV worked well, plenty of satellite TV channels. There were cookies in the lobby at check-in, which was nice. So I'm not saying that it was un-livable or totally horrible. It was possible to sleep, mostly, kept us out of the weather, kind of, and it didn't ruin the trip exactly.  It's just that I would have to try something else before voluntarily staying in that sweatbox again.MoreShow less</t>
+  </si>
+  <si>
+    <t>What's the next best thing to sweating at the equator?  Maybe July in Houston at a Holiday Inn Express festooned with decorative furnishings from the Asian sub-continent. 
+The elevator was a sauna. It only has to go 3 floors, but whether riding it up or down, your brow will be dewy before the doors re-open. 
+Never before had I seen a room A/C fan control that only switched between "Lo" and "Auto" -- which in this case meant exactly the same thing! 
+Some buildings are able to control the humidity inside which has to be challenging in Houston. This place was not up to the challenge. Between about midnight and 7 a.m., the room temperature could dip down into the 70's, but it was still sticky with the mugginess inside. 
+The hallways and entry were well lit and clean, and the daily maid service to the room was ok. No problem with front desk check-in.  The neighborhood might be a little sketchy, but we did not have any security issues personally or with our parked vehicle. There are grocery stores and restaurants that are not too far. Wi-Fi was free, but it was slow at times. Flat screen TV worked well, plenty of satellite TV channels. There were cookies in the lobby at check-in, which was nice. 
+So I'm not saying that it was un-livable or totally horrible. It was possible to sleep, mostly, kept us out of the weather,...What's the next best thing to sweating at the equator?  Maybe July in Houston at a Holiday Inn Express festooned with decorative furnishings from the Asian sub-continent. The elevator was a sauna. It only has to go 3 floors, but whether riding it up or down, your brow will be dewy before the doors re-open. Never before had I seen a room A/C fan control that only switched between "Lo" and "Auto" -- which in this case meant exactly the same thing! Some buildings are able to control the humidity inside which has to be challenging in Houston. This place was not up to the challenge. Between about midnight and 7 a.m., the room temperature could dip down into the 70's, but it was still sticky with the mugginess inside. The hallways and entry were well lit and clean, and the daily maid service to the room was ok. No problem with front desk check-in.  The neighborhood might be a little sketchy, but we did not have any security issues personally or with our parked vehicle. There are grocery stores and restaurants that are not too far. Wi-Fi was free, but it was slow at times. Flat screen TV worked well, plenty of satellite TV channels. There were cookies in the lobby at check-in, which was nice. So I'm not saying that it was un-livable or totally horrible. It was possible to sleep, mostly, kept us out of the weather, kind of, and it didn't ruin the trip exactly.  It's just that I would have to try something else before voluntarily staying in that sweatbox again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r168854030-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168854030</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn for Medical</t>
+  </si>
+  <si>
+    <t>Due to many appointments at MD Anderson, we have stayed here quite a bit recently and also at the Reliant Holiday Inn. This hotel is SO much cleaner, better smelling, and just nicer. The bathrooms here are 3X's as large. At both hotels it can be difficult to get the medical rate so you need to reserve as early as possible. We have never used the shuttle service to the hospital so I don't know about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Due to many appointments at MD Anderson, we have stayed here quite a bit recently and also at the Reliant Holiday Inn. This hotel is SO much cleaner, better smelling, and just nicer. The bathrooms here are 3X's as large. At both hotels it can be difficult to get the medical rate so you need to reserve as early as possible. We have never used the shuttle service to the hospital so I don't know about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r162825800-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162825800</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Ripped off</t>
+  </si>
+  <si>
+    <t>I had reserved a room here in March and asked for the conference rate. I found out that the conference rate was only for students. They supposedly called me but I never got a message. Since I never confirmed the higher rate I thought that was that.  Several weeks letter I found I got charged $170 on my credit card although I never checked in. I wrote countless times for a refund and even proposed a compromise of credit for a room some other time. No response at all. I have written 5 more times and nothing. I see this as bad management and just plane rudeness. The people at Club Quarters, by comparison, were efficient, courteous and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2013</t>
+  </si>
+  <si>
+    <t>I had reserved a room here in March and asked for the conference rate. I found out that the conference rate was only for students. They supposedly called me but I never got a message. Since I never confirmed the higher rate I thought that was that.  Several weeks letter I found I got charged $170 on my credit card although I never checked in. I wrote countless times for a refund and even proposed a compromise of credit for a room some other time. No response at all. I have written 5 more times and nothing. I see this as bad management and just plane rudeness. The people at Club Quarters, by comparison, were efficient, courteous and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r160940777-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160940777</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express Houston Medical Center on a business trip.  Although my company booked me for a smoking room (I do not smoke), the staff was really understanding and accommodating.  Since I arrived late, they took the time to eliminate and air out the smoke smell.  In particular, there was a man on staff named Andy, who was very pleasant and able to move me to a non-smoking room.  Andy was very nice and made sure I was happy with my stay.  It is great to know that the staff genuinely cares for their guests and contributes true comfort away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express Houston Medical Center on a business trip.  Although my company booked me for a smoking room (I do not smoke), the staff was really understanding and accommodating.  Since I arrived late, they took the time to eliminate and air out the smoke smell.  In particular, there was a man on staff named Andy, who was very pleasant and able to move me to a non-smoking room.  Andy was very nice and made sure I was happy with my stay.  It is great to know that the staff genuinely cares for their guests and contributes true comfort away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r160020779-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160020779</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>okay stay</t>
+  </si>
+  <si>
+    <t>The hotel was clean. Certain areas are dated. There didn't seem to be a lot of parking. One reason we choose this hotel is because they had a shuttle. However, after we booked, we found out  that it only goes to the medical area, not the airport. At check in we found out it only runs on weekdays, not on weekends. I wish they would have been upfront with me about the shuttle from my first phone call with them since that is what was really important to me.Breakfast was okay... and the staff was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean. Certain areas are dated. There didn't seem to be a lot of parking. One reason we choose this hotel is because they had a shuttle. However, after we booked, we found out  that it only goes to the medical area, not the airport. At check in we found out it only runs on weekdays, not on weekends. I wish they would have been upfront with me about the shuttle from my first phone call with them since that is what was really important to me.Breakfast was okay... and the staff was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r158989111-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158989111</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>It is clean, comfortable, love the rooms, very spacious. The people at the front desk very helpful and friendly. It is just very convinient, quite, just a nice place to stay the night for business or medical trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Walker V, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>It is clean, comfortable, love the rooms, very spacious. The people at the front desk very helpful and friendly. It is just very convinient, quite, just a nice place to stay the night for business or medical trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r158275563-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158275563</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>No Service</t>
+  </si>
+  <si>
+    <t>To start let me say that I am not a hotel snob and we stay in hotels 25-30 nights per year. I was in Houston for a food show that was being hosted at the Crown Plaza. I called the reservation desk and the only room available in the area was at this hotel. It was a king suite.  Was told it was a two room suite.  I was traveling with an employee. Not my first choice, but we would make it work.
+When we got to the show, the gentleman handling the convention at the Crown informed me that he had some openings, due to cancellations, at the Crown. When he found out that we were staying at the Holiday Inn Express he asked for my reservation number to see if they would do a courtesy move to the sister property at the Crown. When he called the Holiday Inn Express he spoke to a woman named Debbie. She said no, I could not change my reservation (it was past the cancellation date and time). He asked to talk to the manager of the hotel to go above her. She said no, the manager was in a meeting. She would not give the message to the manager. I thanked him for trying.
+We went to the hotel, and while waiting in line watched 2 different people come in and ask for a room - they were refused because they...To start let me say that I am not a hotel snob and we stay in hotels 25-30 nights per year. I was in Houston for a food show that was being hosted at the Crown Plaza. I called the reservation desk and the only room available in the area was at this hotel. It was a king suite.  Was told it was a two room suite.  I was traveling with an employee. Not my first choice, but we would make it work.When we got to the show, the gentleman handling the convention at the Crown informed me that he had some openings, due to cancellations, at the Crown. When he found out that we were staying at the Holiday Inn Express he asked for my reservation number to see if they would do a courtesy move to the sister property at the Crown. When he called the Holiday Inn Express he spoke to a woman named Debbie. She said no, I could not change my reservation (it was past the cancellation date and time). He asked to talk to the manager of the hotel to go above her. She said no, the manager was in a meeting. She would not give the message to the manager. I thanked him for trying.We went to the hotel, and while waiting in line watched 2 different people come in and ask for a room - they were refused because they had no rooms available.  We also witnessed a man who had lost his room keys and asked Debbie for a new room key. She scolded him for loosing  his keys and then gave him one key. He asked for another key, she said no, he could only have one key. Really?? We checked in and went to our room. The room did not have a separate bedroom, it did have a pull out sofa, but it was so dirty I was not about to let my employee sleep on it. We ended up sharing a single bed.  Awkward!!!!!!!At check in we were told that the shuttle ran at the top of the hour, so we caught the shuttle to the Crown where the dinner for the convention was being hosted. The shuttle was filthy.  Stains on the seats, dirt everywhere. We were dropped off and the shuttle driver gave us a card to call to get picked up.  The driver told us that if he wasn't busy that the 8:00p.m. shuttle may be the last shuttle that he would run, and that we could catch a cab back. Not what we were told when I made the reservation. Called the number on the card at 7:40 to schedule a ride back at 8:00. No one answered, so I left a message.  I also called the hotel at 7:50 to make sure we would get picked up.  At 8:20 we called the hotel again (we were only 1.7 miles away), to make sure we were getting picked up. Finally picked up at 8:37. The shuttle driver was talking to us and then said that the people at the hotel were f***ing stupid. I agreed with him but really?  We didn't use any of the facilities, including breakfast because that was part of the convention at the Crown. The room was nothing special but ok, but I have never had an experience like this at a Holiday Inn.  I run a small business, and customer service is the name of the game.  If I ever caught any of my employees talking to my customers the way this crew did, I would fire them on the spot.  If I had been allowed to change my reservation to the Crown, I would have gotten 2 rooms and IHC corporation would not have been out one penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walker V, Owner at Hotel Ylem, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>To start let me say that I am not a hotel snob and we stay in hotels 25-30 nights per year. I was in Houston for a food show that was being hosted at the Crown Plaza. I called the reservation desk and the only room available in the area was at this hotel. It was a king suite.  Was told it was a two room suite.  I was traveling with an employee. Not my first choice, but we would make it work.
+When we got to the show, the gentleman handling the convention at the Crown informed me that he had some openings, due to cancellations, at the Crown. When he found out that we were staying at the Holiday Inn Express he asked for my reservation number to see if they would do a courtesy move to the sister property at the Crown. When he called the Holiday Inn Express he spoke to a woman named Debbie. She said no, I could not change my reservation (it was past the cancellation date and time). He asked to talk to the manager of the hotel to go above her. She said no, the manager was in a meeting. She would not give the message to the manager. I thanked him for trying.
+We went to the hotel, and while waiting in line watched 2 different people come in and ask for a room - they were refused because they...To start let me say that I am not a hotel snob and we stay in hotels 25-30 nights per year. I was in Houston for a food show that was being hosted at the Crown Plaza. I called the reservation desk and the only room available in the area was at this hotel. It was a king suite.  Was told it was a two room suite.  I was traveling with an employee. Not my first choice, but we would make it work.When we got to the show, the gentleman handling the convention at the Crown informed me that he had some openings, due to cancellations, at the Crown. When he found out that we were staying at the Holiday Inn Express he asked for my reservation number to see if they would do a courtesy move to the sister property at the Crown. When he called the Holiday Inn Express he spoke to a woman named Debbie. She said no, I could not change my reservation (it was past the cancellation date and time). He asked to talk to the manager of the hotel to go above her. She said no, the manager was in a meeting. She would not give the message to the manager. I thanked him for trying.We went to the hotel, and while waiting in line watched 2 different people come in and ask for a room - they were refused because they had no rooms available.  We also witnessed a man who had lost his room keys and asked Debbie for a new room key. She scolded him for loosing  his keys and then gave him one key. He asked for another key, she said no, he could only have one key. Really?? We checked in and went to our room. The room did not have a separate bedroom, it did have a pull out sofa, but it was so dirty I was not about to let my employee sleep on it. We ended up sharing a single bed.  Awkward!!!!!!!At check in we were told that the shuttle ran at the top of the hour, so we caught the shuttle to the Crown where the dinner for the convention was being hosted. The shuttle was filthy.  Stains on the seats, dirt everywhere. We were dropped off and the shuttle driver gave us a card to call to get picked up.  The driver told us that if he wasn't busy that the 8:00p.m. shuttle may be the last shuttle that he would run, and that we could catch a cab back. Not what we were told when I made the reservation. Called the number on the card at 7:40 to schedule a ride back at 8:00. No one answered, so I left a message.  I also called the hotel at 7:50 to make sure we would get picked up.  At 8:20 we called the hotel again (we were only 1.7 miles away), to make sure we were getting picked up. Finally picked up at 8:37. The shuttle driver was talking to us and then said that the people at the hotel were f***ing stupid. I agreed with him but really?  We didn't use any of the facilities, including breakfast because that was part of the convention at the Crown. The room was nothing special but ok, but I have never had an experience like this at a Holiday Inn.  I run a small business, and customer service is the name of the game.  If I ever caught any of my employees talking to my customers the way this crew did, I would fire them on the spot.  If I had been allowed to change my reservation to the Crown, I would have gotten 2 rooms and IHC corporation would not have been out one penny.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r157605780-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157605780</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>I stayed here for my daughters DR. appointments and was very pleased with the location and the staff.We have stayed at other area hotels and this one is by far the best for the price and location. We will try to stay here when we have to come back to houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for my daughters DR. appointments and was very pleased with the location and the staff.We have stayed at other area hotels and this one is by far the best for the price and location. We will try to stay here when we have to come back to houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r153523506-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153523506</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Great location for business at Baylor College of Medicine</t>
+  </si>
+  <si>
+    <t>Excellent location to stay when attending to business at the Baylor College of Medicine.  Hotel provides a shuttle to the medical centers; hotel is near to many restaurants within walking distance.  Room was spacious and clean; free breakfast provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded March 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2013</t>
+  </si>
+  <si>
+    <t>Excellent location to stay when attending to business at the Baylor College of Medicine.  Hotel provides a shuttle to the medical centers; hotel is near to many restaurants within walking distance.  Room was spacious and clean; free breakfast provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r152965223-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152965223</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Good for a quick overnight stay.</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights back in late December.  The hotel is conveniently located near many convenience stores and familiar chain and fast food restaurants.  However, you'll need a car to get to these places as Main Street is not very pedestrian friendly and the immediate area around the hotel was not entirely safe.
+The lobby area is compact, with a small seating area in front of the front desk. Check in was quick. My room was on the second floor of the two story hotel, which can be accessed by the elevator or by staircase within the lobby.  
+The rooms are up to current Holiday Inn Express standards, with subdued creme colored walls, modern decor and furniture.  There is a separate wetbar area near the entryway and bathroom that houses a microwave oven and small fridge.  My king bedded room had a small sofabed.  The desk was right by the window.  There is a huge 46 inch LCD TV, which I thought was too large for the room, but works fine.
+Room amenities are: Iron/ironing board, microwave oven, safe, refrigerator, clock radio without mp3 connections. 
+Bathroom amenities are: hair dryer, coffee maker, shampoo, conditioner, lotion.
+My gripes about the room are: (1) It's too dark.  Although the photos of the rooms in the website are bright, In reality, my room (facing the next door apartment complex) was pretty dark during the day, even though I had all of the...I stayed for 3 nights back in late December.  The hotel is conveniently located near many convenience stores and familiar chain and fast food restaurants.  However, you'll need a car to get to these places as Main Street is not very pedestrian friendly and the immediate area around the hotel was not entirely safe.The lobby area is compact, with a small seating area in front of the front desk. Check in was quick. My room was on the second floor of the two story hotel, which can be accessed by the elevator or by staircase within the lobby.  The rooms are up to current Holiday Inn Express standards, with subdued creme colored walls, modern decor and furniture.  There is a separate wetbar area near the entryway and bathroom that houses a microwave oven and small fridge.  My king bedded room had a small sofabed.  The desk was right by the window.  There is a huge 46 inch LCD TV, which I thought was too large for the room, but works fine.Room amenities are: Iron/ironing board, microwave oven, safe, refrigerator, clock radio without mp3 connections. Bathroom amenities are: hair dryer, coffee maker, shampoo, conditioner, lotion.My gripes about the room are: (1) It's too dark.  Although the photos of the rooms in the website are bright, In reality, my room (facing the next door apartment complex) was pretty dark during the day, even though I had all of the lights on in the room.  (2) The wifi is unreliable and inconvenient: There is an annoying acknowledgement screen that you have to agree to, and it has to be renewed every time you turn your computer on. In addition the connection is slow...even downloading attachments to e-mails took a while!  So, if you're staying for a couple nights on business and need to get work done....this may not be the hotel for you.The complimentary breakfast is served in a small pantry/dining area at the back of the lobby, behind the staircase.  Again, it was standard Holiday Inn Express fare...cinnamon buns, a selection of cereals, eggs, biscuits, bacon or sausage (changes every day), pastries, breads, yogurt..etc.  Since it was small room, the dining area can get full when the hotel is busy. Overall, the service is OK...the hotel staff was responsive to my needs, but generally I didn't feel welcome or get a friendly response.  Maybe that's just the culture of the local area or the hotel itself. If you're just need a place to crash for a night or two, this is a perfectly fine place to stay.  If you are going to be in town for a couple of nights, and need to get some work done in your room, perhaps you should look elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights back in late December.  The hotel is conveniently located near many convenience stores and familiar chain and fast food restaurants.  However, you'll need a car to get to these places as Main Street is not very pedestrian friendly and the immediate area around the hotel was not entirely safe.
+The lobby area is compact, with a small seating area in front of the front desk. Check in was quick. My room was on the second floor of the two story hotel, which can be accessed by the elevator or by staircase within the lobby.  
+The rooms are up to current Holiday Inn Express standards, with subdued creme colored walls, modern decor and furniture.  There is a separate wetbar area near the entryway and bathroom that houses a microwave oven and small fridge.  My king bedded room had a small sofabed.  The desk was right by the window.  There is a huge 46 inch LCD TV, which I thought was too large for the room, but works fine.
+Room amenities are: Iron/ironing board, microwave oven, safe, refrigerator, clock radio without mp3 connections. 
+Bathroom amenities are: hair dryer, coffee maker, shampoo, conditioner, lotion.
+My gripes about the room are: (1) It's too dark.  Although the photos of the rooms in the website are bright, In reality, my room (facing the next door apartment complex) was pretty dark during the day, even though I had all of the...I stayed for 3 nights back in late December.  The hotel is conveniently located near many convenience stores and familiar chain and fast food restaurants.  However, you'll need a car to get to these places as Main Street is not very pedestrian friendly and the immediate area around the hotel was not entirely safe.The lobby area is compact, with a small seating area in front of the front desk. Check in was quick. My room was on the second floor of the two story hotel, which can be accessed by the elevator or by staircase within the lobby.  The rooms are up to current Holiday Inn Express standards, with subdued creme colored walls, modern decor and furniture.  There is a separate wetbar area near the entryway and bathroom that houses a microwave oven and small fridge.  My king bedded room had a small sofabed.  The desk was right by the window.  There is a huge 46 inch LCD TV, which I thought was too large for the room, but works fine.Room amenities are: Iron/ironing board, microwave oven, safe, refrigerator, clock radio without mp3 connections. Bathroom amenities are: hair dryer, coffee maker, shampoo, conditioner, lotion.My gripes about the room are: (1) It's too dark.  Although the photos of the rooms in the website are bright, In reality, my room (facing the next door apartment complex) was pretty dark during the day, even though I had all of the lights on in the room.  (2) The wifi is unreliable and inconvenient: There is an annoying acknowledgement screen that you have to agree to, and it has to be renewed every time you turn your computer on. In addition the connection is slow...even downloading attachments to e-mails took a while!  So, if you're staying for a couple nights on business and need to get work done....this may not be the hotel for you.The complimentary breakfast is served in a small pantry/dining area at the back of the lobby, behind the staircase.  Again, it was standard Holiday Inn Express fare...cinnamon buns, a selection of cereals, eggs, biscuits, bacon or sausage (changes every day), pastries, breads, yogurt..etc.  Since it was small room, the dining area can get full when the hotel is busy. Overall, the service is OK...the hotel staff was responsive to my needs, but generally I didn't feel welcome or get a friendly response.  Maybe that's just the culture of the local area or the hotel itself. If you're just need a place to crash for a night or two, this is a perfectly fine place to stay.  If you are going to be in town for a couple of nights, and need to get some work done in your room, perhaps you should look elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r152900960-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152900960</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Ok for a short stay</t>
+  </si>
+  <si>
+    <t>I chose this location based on reviews and I was dissappointed. I have stayed at several Holiday Inn Express locations and unfortunately this one was the worst. Let me start with the positives, the staff was very friendly, especially the lady who coordinates the breakfast. The breakfast selection was good and my daughter and I especially enjoyed the cookies in the lobby. Upon checking in, I was able to get a better rate than I orginally made the reservation for just by asking. The location near Reliant Park and the restaurants are a huge plus which is why I gave a 3 star rating. 
+The negatives. The first impression upon walking in was the overwhelming smell of cigarette smoke at the entrance and front desk. I later realized it was the staff who was smoking at the entrance. Ugh!!. Our room was on the first floor and it had a sour smell as soon as we walked in. I turned on the ac and lit our travel candle to take care of the smell. I could have requested another room, but after our long drive, I was too tired. The bed was extremely uncomfortable. I am not picky but it was equivalent to sleeping on the floor. I have stayed at other HI Express, even since this location and had no problems with the beds.
+Would I come back? No. For the money, you can do better at several locations...I chose this location based on reviews and I was dissappointed. I have stayed at several Holiday Inn Express locations and unfortunately this one was the worst. Let me start with the positives, the staff was very friendly, especially the lady who coordinates the breakfast. The breakfast selection was good and my daughter and I especially enjoyed the cookies in the lobby. Upon checking in, I was able to get a better rate than I orginally made the reservation for just by asking. The location near Reliant Park and the restaurants are a huge plus which is why I gave a 3 star rating. The negatives. The first impression upon walking in was the overwhelming smell of cigarette smoke at the entrance and front desk. I later realized it was the staff who was smoking at the entrance. Ugh!!. Our room was on the first floor and it had a sour smell as soon as we walked in. I turned on the ac and lit our travel candle to take care of the smell. I could have requested another room, but after our long drive, I was too tired. The bed was extremely uncomfortable. I am not picky but it was equivalent to sleeping on the floor. I have stayed at other HI Express, even since this location and had no problems with the beds.Would I come back? No. For the money, you can do better at several locations within a couple mile radius.MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this location based on reviews and I was dissappointed. I have stayed at several Holiday Inn Express locations and unfortunately this one was the worst. Let me start with the positives, the staff was very friendly, especially the lady who coordinates the breakfast. The breakfast selection was good and my daughter and I especially enjoyed the cookies in the lobby. Upon checking in, I was able to get a better rate than I orginally made the reservation for just by asking. The location near Reliant Park and the restaurants are a huge plus which is why I gave a 3 star rating. 
+The negatives. The first impression upon walking in was the overwhelming smell of cigarette smoke at the entrance and front desk. I later realized it was the staff who was smoking at the entrance. Ugh!!. Our room was on the first floor and it had a sour smell as soon as we walked in. I turned on the ac and lit our travel candle to take care of the smell. I could have requested another room, but after our long drive, I was too tired. The bed was extremely uncomfortable. I am not picky but it was equivalent to sleeping on the floor. I have stayed at other HI Express, even since this location and had no problems with the beds.
+Would I come back? No. For the money, you can do better at several locations...I chose this location based on reviews and I was dissappointed. I have stayed at several Holiday Inn Express locations and unfortunately this one was the worst. Let me start with the positives, the staff was very friendly, especially the lady who coordinates the breakfast. The breakfast selection was good and my daughter and I especially enjoyed the cookies in the lobby. Upon checking in, I was able to get a better rate than I orginally made the reservation for just by asking. The location near Reliant Park and the restaurants are a huge plus which is why I gave a 3 star rating. The negatives. The first impression upon walking in was the overwhelming smell of cigarette smoke at the entrance and front desk. I later realized it was the staff who was smoking at the entrance. Ugh!!. Our room was on the first floor and it had a sour smell as soon as we walked in. I turned on the ac and lit our travel candle to take care of the smell. I could have requested another room, but after our long drive, I was too tired. The bed was extremely uncomfortable. I am not picky but it was equivalent to sleeping on the floor. I have stayed at other HI Express, even since this location and had no problems with the beds.Would I come back? No. For the money, you can do better at several locations within a couple mile radius.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r150442330-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150442330</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>A good choice for Texas Medical Center trips</t>
+  </si>
+  <si>
+    <t>This was my first time staying in this hotel. I was impressed. It is new and clean throughout. We had a king bed suite. The room was large and comfortable. The hotel would serve as a basis for Medical Center trips or the Reliant Center and sports events nearby. As other reviewers have said there are numerous restaurants nearby and easy shopping choices. I asked for the medical rate and was charged 99.99 for the one night. I didn't try the shuttle, so I can't comment on that service. Nor did we try the breakfast. We did sample the morning coffee and it was very good. A USA today was supplied. There was free internet service (always a plus). For short stays I will try this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded January 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2013</t>
+  </si>
+  <si>
+    <t>This was my first time staying in this hotel. I was impressed. It is new and clean throughout. We had a king bed suite. The room was large and comfortable. The hotel would serve as a basis for Medical Center trips or the Reliant Center and sports events nearby. As other reviewers have said there are numerous restaurants nearby and easy shopping choices. I asked for the medical rate and was charged 99.99 for the one night. I didn't try the shuttle, so I can't comment on that service. Nor did we try the breakfast. We did sample the morning coffee and it was very good. A USA today was supplied. There was free internet service (always a plus). For short stays I will try this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r147552831-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147552831</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, well-located hotel with great staff</t>
+  </si>
+  <si>
+    <t>This hotel is located on Main Street about 3 miles from the Medical Center, next to a Super Target and a CVS Pharmacy and tons of restaurants. We decided to give it a try this time since it includes free breakfast and free parking and we did not need a kitchen on this trip. The staff is excellent. The guys at the front desk really go out of their way to make you feel welcome and comfortable. We requested an upgrade since we are platinum ambassador members and were granted one. The room is standard hotel room size but it included a microwave, wet bar and small refrigerator. It also included a large size whirpool. Very comfortable. The breakfast was outstanding compared to other Holiday Inn Express properties we have stayed at, and the girls who work in the breakfast room are most helpful. They constantly go in and out of the breakfast room replenishing items and walk around the tables asking everybody if they need anything and offering help. First HI Express we see this service at breakfast. Also, we had ordered some packages to be delivered at the hotel by UPS and UPS made the mistake of dropping one of them at another HI property on Main Street. The front desk staff were jumping up the loops calling other HI properties around the area until they located it. They sent a driver to pick it up and gave...This hotel is located on Main Street about 3 miles from the Medical Center, next to a Super Target and a CVS Pharmacy and tons of restaurants. We decided to give it a try this time since it includes free breakfast and free parking and we did not need a kitchen on this trip. The staff is excellent. The guys at the front desk really go out of their way to make you feel welcome and comfortable. We requested an upgrade since we are platinum ambassador members and were granted one. The room is standard hotel room size but it included a microwave, wet bar and small refrigerator. It also included a large size whirpool. Very comfortable. The breakfast was outstanding compared to other Holiday Inn Express properties we have stayed at, and the girls who work in the breakfast room are most helpful. They constantly go in and out of the breakfast room replenishing items and walk around the tables asking everybody if they need anything and offering help. First HI Express we see this service at breakfast. Also, we had ordered some packages to be delivered at the hotel by UPS and UPS made the mistake of dropping one of them at another HI property on Main Street. The front desk staff were jumping up the loops calling other HI properties around the area until they located it. They sent a driver to pick it up and gave it to us. Really good service. Overall, great value, staff and location. We'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded December 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is located on Main Street about 3 miles from the Medical Center, next to a Super Target and a CVS Pharmacy and tons of restaurants. We decided to give it a try this time since it includes free breakfast and free parking and we did not need a kitchen on this trip. The staff is excellent. The guys at the front desk really go out of their way to make you feel welcome and comfortable. We requested an upgrade since we are platinum ambassador members and were granted one. The room is standard hotel room size but it included a microwave, wet bar and small refrigerator. It also included a large size whirpool. Very comfortable. The breakfast was outstanding compared to other Holiday Inn Express properties we have stayed at, and the girls who work in the breakfast room are most helpful. They constantly go in and out of the breakfast room replenishing items and walk around the tables asking everybody if they need anything and offering help. First HI Express we see this service at breakfast. Also, we had ordered some packages to be delivered at the hotel by UPS and UPS made the mistake of dropping one of them at another HI property on Main Street. The front desk staff were jumping up the loops calling other HI properties around the area until they located it. They sent a driver to pick it up and gave...This hotel is located on Main Street about 3 miles from the Medical Center, next to a Super Target and a CVS Pharmacy and tons of restaurants. We decided to give it a try this time since it includes free breakfast and free parking and we did not need a kitchen on this trip. The staff is excellent. The guys at the front desk really go out of their way to make you feel welcome and comfortable. We requested an upgrade since we are platinum ambassador members and were granted one. The room is standard hotel room size but it included a microwave, wet bar and small refrigerator. It also included a large size whirpool. Very comfortable. The breakfast was outstanding compared to other Holiday Inn Express properties we have stayed at, and the girls who work in the breakfast room are most helpful. They constantly go in and out of the breakfast room replenishing items and walk around the tables asking everybody if they need anything and offering help. First HI Express we see this service at breakfast. Also, we had ordered some packages to be delivered at the hotel by UPS and UPS made the mistake of dropping one of them at another HI property on Main Street. The front desk staff were jumping up the loops calling other HI properties around the area until they located it. They sent a driver to pick it up and gave it to us. Really good service. Overall, great value, staff and location. We'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r145623994-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145623994</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>unbelievably horrible experience $2000 later!</t>
+  </si>
+  <si>
+    <t>I've never been treated so terrible in my life! I live in Oklahoma. I just used the phone book to find a hotel. This hotel popped up it was close to the cancer center at MD Anderson so they gave us a deal with no taxes if we stayed a month. I got terriably sick and had to call the ambulance to the hotel and was admitted into the hospital. That night my 3 year old grandson's diaper leaked on the sheets. Walker called and was threatening my daughter if we damaged or soiled anymore sheets he was kicking us out. First he tried to lie and say the mattress was stained. Walker was asked to come to the room to look at the mattress there is no stains and we have pictures to prove it!  Walker and the district manager decided to kick my daughter and her two small children out in the streets hundreds of miles from home then he went back on his word on the price of the hotel and decided to charge us more than that was initially agreed upon because they didn't like my daughter's attitude after being kicked out. They charged me over $2000 for 18 days and Walker was a complete jerk I told him I was goning to complain he told me to go for it that nothing would happen because It was individually owned. That's my experience with this hotel...I've never been treated so terrible in my life! I live in Oklahoma. I just used the phone book to find a hotel. This hotel popped up it was close to the cancer center at MD Anderson so they gave us a deal with no taxes if we stayed a month. I got terriably sick and had to call the ambulance to the hotel and was admitted into the hospital. That night my 3 year old grandson's diaper leaked on the sheets. Walker called and was threatening my daughter if we damaged or soiled anymore sheets he was kicking us out. First he tried to lie and say the mattress was stained. Walker was asked to come to the room to look at the mattress there is no stains and we have pictures to prove it!  Walker and the district manager decided to kick my daughter and her two small children out in the streets hundreds of miles from home then he went back on his word on the price of the hotel and decided to charge us more than that was initially agreed upon because they didn't like my daughter's attitude after being kicked out. They charged me over $2000 for 18 days and Walker was a complete jerk I told him I was goning to complain he told me to go for it that nothing would happen because It was individually owned. That's my experience with this hotel on 8080 Main Street in Houston, TX.  My hope is that no one has to encounter what I have with this hotel.  I would like to give credit where it is deserved and that is to the lady in the kitchen. She always greeted us with a smile and willing to lend a helping hand.  The gentlemen driving the shuttle were always pleasant and yes full of information.  Thank you THREE people on the staff that actually treat people with kindness.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walker V, Front Office Manager at Hotel Ylem, responded to this reviewResponded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2012</t>
+  </si>
+  <si>
+    <t>I've never been treated so terrible in my life! I live in Oklahoma. I just used the phone book to find a hotel. This hotel popped up it was close to the cancer center at MD Anderson so they gave us a deal with no taxes if we stayed a month. I got terriably sick and had to call the ambulance to the hotel and was admitted into the hospital. That night my 3 year old grandson's diaper leaked on the sheets. Walker called and was threatening my daughter if we damaged or soiled anymore sheets he was kicking us out. First he tried to lie and say the mattress was stained. Walker was asked to come to the room to look at the mattress there is no stains and we have pictures to prove it!  Walker and the district manager decided to kick my daughter and her two small children out in the streets hundreds of miles from home then he went back on his word on the price of the hotel and decided to charge us more than that was initially agreed upon because they didn't like my daughter's attitude after being kicked out. They charged me over $2000 for 18 days and Walker was a complete jerk I told him I was goning to complain he told me to go for it that nothing would happen because It was individually owned. That's my experience with this hotel...I've never been treated so terrible in my life! I live in Oklahoma. I just used the phone book to find a hotel. This hotel popped up it was close to the cancer center at MD Anderson so they gave us a deal with no taxes if we stayed a month. I got terriably sick and had to call the ambulance to the hotel and was admitted into the hospital. That night my 3 year old grandson's diaper leaked on the sheets. Walker called and was threatening my daughter if we damaged or soiled anymore sheets he was kicking us out. First he tried to lie and say the mattress was stained. Walker was asked to come to the room to look at the mattress there is no stains and we have pictures to prove it!  Walker and the district manager decided to kick my daughter and her two small children out in the streets hundreds of miles from home then he went back on his word on the price of the hotel and decided to charge us more than that was initially agreed upon because they didn't like my daughter's attitude after being kicked out. They charged me over $2000 for 18 days and Walker was a complete jerk I told him I was goning to complain he told me to go for it that nothing would happen because It was individually owned. That's my experience with this hotel on 8080 Main Street in Houston, TX.  My hope is that no one has to encounter what I have with this hotel.  I would like to give credit where it is deserved and that is to the lady in the kitchen. She always greeted us with a smile and willing to lend a helping hand.  The gentlemen driving the shuttle were always pleasant and yes full of information.  Thank you THREE people on the staff that actually treat people with kindness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r141052249-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141052249</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>We won't stay anywhere else!</t>
+  </si>
+  <si>
+    <t>This place is amazingly nice, the staff exceptional. We came for our IVF treatment. The staff was compassionate, obviously caring. Always met with a smile. We will be making several trips back for our follow up appointment. We won't stay anywhere else. Many thanks!! Roger &amp; Katrina + 2 new growing babies!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>This place is amazingly nice, the staff exceptional. We came for our IVF treatment. The staff was compassionate, obviously caring. Always met with a smile. We will be making several trips back for our follow up appointment. We won't stay anywhere else. Many thanks!! Roger &amp; Katrina + 2 new growing babies!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r137298836-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137298836</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>good value and  some helpful staff</t>
+  </si>
+  <si>
+    <t>stayed here four nights. it's typical holiday inn express hotel. free continental breakfast, free wi-fi, free parking, etc. it's very accessible to everything. walking distance to 24h cvs pharmacy. nearby super target, restaurants. we shipped my son's computer ahead of time and they kept it for us. it arrived their thursday and we checked in friday. that was very nice of them.pros:- shuttle service monday-friday only (no week-ends), nice driver and informative        - reliable and free wi-fi        - some helpful staff        - friendly, professional and helpful breakfast attendant (francy?)        - ample and safe parking        - fridge/micro in the roomcons:        - one front desk clerk not knowledgeable on hotel phone charges (local calls), puts you on            hold forever and doesn't go back to answer your questions (we had to hung up after            waiting so long)        - front desk clerks needs to say good morning, good afternoon or whatever the case            maybe and "smiles" goes a long way         - needs more cleaning in the public hallways, stairs, elevator, etc.         - no safe for valuablesi was speaking to some guests and they're repeat clientele. they come here for the medical centers around the areas for treatment. i chose this hotel this time coz of the value. we dropped off my son to attend Rice Univ.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Walker V, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded August 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2012</t>
+  </si>
+  <si>
+    <t>stayed here four nights. it's typical holiday inn express hotel. free continental breakfast, free wi-fi, free parking, etc. it's very accessible to everything. walking distance to 24h cvs pharmacy. nearby super target, restaurants. we shipped my son's computer ahead of time and they kept it for us. it arrived their thursday and we checked in friday. that was very nice of them.pros:- shuttle service monday-friday only (no week-ends), nice driver and informative        - reliable and free wi-fi        - some helpful staff        - friendly, professional and helpful breakfast attendant (francy?)        - ample and safe parking        - fridge/micro in the roomcons:        - one front desk clerk not knowledgeable on hotel phone charges (local calls), puts you on            hold forever and doesn't go back to answer your questions (we had to hung up after            waiting so long)        - front desk clerks needs to say good morning, good afternoon or whatever the case            maybe and "smiles" goes a long way         - needs more cleaning in the public hallways, stairs, elevator, etc.         - no safe for valuablesi was speaking to some guests and they're repeat clientele. they come here for the medical centers around the areas for treatment. i chose this hotel this time coz of the value. we dropped off my son to attend Rice Univ.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r135928814-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135928814</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Sisters trip to MDAnderson Cancer Center</t>
+  </si>
+  <si>
+    <t>My sister and I had the opportunity to stay at this hotel and we just have to rate everything " EXCELLENT " ! The room was clean and well stocked; all employees we came in contact with were very polite and knowledgeable.The staff was awesome !  Mr. Gray ( shuttle driver ) was just wonderful. Great attitude and sense of humor. The manager was outstanding as well as Jessica and the other employees whom we forgot to get names.Should we be visiting Houston again in the future; we will be wanting to stay at this particular facility again !Best thing that happened on this trip . . . my sister is now " CANCER FREE " !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Walker V, Manager at Hotel Ylem, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>My sister and I had the opportunity to stay at this hotel and we just have to rate everything " EXCELLENT " ! The room was clean and well stocked; all employees we came in contact with were very polite and knowledgeable.The staff was awesome !  Mr. Gray ( shuttle driver ) was just wonderful. Great attitude and sense of humor. The manager was outstanding as well as Jessica and the other employees whom we forgot to get names.Should we be visiting Houston again in the future; we will be wanting to stay at this particular facility again !Best thing that happened on this trip . . . my sister is now " CANCER FREE " !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r127957764-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127957764</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Service is very good. Convenient location</t>
+  </si>
+  <si>
+    <t>This hotel is located very near Texas Medical Center, which is very convenient for patients and family. The hotel provides a shuttle.  The king master suite was very clean and thoughtfully planned, but seemed cramped and small for the price. Not really suite like - if you equate suite with room size. Still, it was equipped with many extras and although it beginning to show its age, spotless.  The sofa bed was what you would expect from a sofa bed - the most awesome bed EVER to two exhausted Pre-schoolers. The king bed was very comfortable, with several pillow choices. The staff was very helpful and friendly, as well. The best thing about our stay is that, although near full  that Saturday night and located in a very busy area, the hotel and room in general were blissfully quiet.  From the sound of it, we were alone in the place. While children rarely travel with us, we try to be considerate of our fellow guests and make the children be quiet. A courtesy that has unfortunately NOT been returned during HIE stays in other citiesMoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded April 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is located very near Texas Medical Center, which is very convenient for patients and family. The hotel provides a shuttle.  The king master suite was very clean and thoughtfully planned, but seemed cramped and small for the price. Not really suite like - if you equate suite with room size. Still, it was equipped with many extras and although it beginning to show its age, spotless.  The sofa bed was what you would expect from a sofa bed - the most awesome bed EVER to two exhausted Pre-schoolers. The king bed was very comfortable, with several pillow choices. The staff was very helpful and friendly, as well. The best thing about our stay is that, although near full  that Saturday night and located in a very busy area, the hotel and room in general were blissfully quiet.  From the sound of it, we were alone in the place. While children rarely travel with us, we try to be considerate of our fellow guests and make the children be quiet. A courtesy that has unfortunately NOT been returned during HIE stays in other citiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r127167244-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127167244</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Gerry is great!</t>
+  </si>
+  <si>
+    <t>Gerry is a true gem! The hotel was more than I expected. Room was ok, breakfast was good, and everything was clean. But the hotel staff was awesome, friendly, and very helpful! Gerry was wonderful! Good luck to you Gerry and keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>HOUHX, Front Office Manager at Hotel Ylem, responded to this reviewResponded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Gerry is a true gem! The hotel was more than I expected. Room was ok, breakfast was good, and everything was clean. But the hotel staff was awesome, friendly, and very helpful! Gerry was wonderful! Good luck to you Gerry and keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r126555145-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126555145</t>
+  </si>
+  <si>
+    <t>03/23/2012</t>
+  </si>
+  <si>
+    <t>Very good and helpful service</t>
+  </si>
+  <si>
+    <t>This hotel was a surprise from the standpoint that we weren't expecting much and were pleasantly surprised by the level with which the employees from the Manager, Walker, and front desk clerk Gerry, on down wanted to help.  The room was pleasant especially considering the rate, and definitely met our needs.  The only mildly negative problem was at 5:30am there was no one around to help with an urgent problem we had.  Perhaps there could be a system of paging from the front desk area as I know the single employee scheduled has to set up breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHX, Manager at Hotel Ylem, responded to this reviewResponded March 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2012</t>
+  </si>
+  <si>
+    <t>This hotel was a surprise from the standpoint that we weren't expecting much and were pleasantly surprised by the level with which the employees from the Manager, Walker, and front desk clerk Gerry, on down wanted to help.  The room was pleasant especially considering the rate, and definitely met our needs.  The only mildly negative problem was at 5:30am there was no one around to help with an urgent problem we had.  Perhaps there could be a system of paging from the front desk area as I know the single employee scheduled has to set up breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r123873001-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123873001</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>very impressed with staff at this hotel</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel from January 22-24, 2012.  My sister &amp; I were accompanying my parents as my Dad was being seen at M.D. Anderson.  The hotel  exceeded all of my expectations in every area.  The staff at the desk were very cordial, efficient and very helpful.  I only caught the name of one (Andy) and he was especially great.  The room was clean &amp; perfect for us - enough outlets &amp; plenty of space.  It was the best free breakfast I've ever had - especially the cinnamon roll!  There were plenty of good restaurants nearby and the shuttle to the medical center was convenient.  The bed was on the hard side but would not prevent me from staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded February 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2012</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel from January 22-24, 2012.  My sister &amp; I were accompanying my parents as my Dad was being seen at M.D. Anderson.  The hotel  exceeded all of my expectations in every area.  The staff at the desk were very cordial, efficient and very helpful.  I only caught the name of one (Andy) and he was especially great.  The room was clean &amp; perfect for us - enough outlets &amp; plenty of space.  It was the best free breakfast I've ever had - especially the cinnamon roll!  There were plenty of good restaurants nearby and the shuttle to the medical center was convenient.  The bed was on the hard side but would not prevent me from staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r123314907-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123314907</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>This hotel must have great managers to have such a smooth operation.  Quick check in, clean rooms, full breakfast (with pancakes!), no noise and a great direction givers!  Will definitely stay here on my next visit to the texas medical center!MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHX, Front Office Manager at Hotel Ylem, responded to this reviewResponded January 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2012</t>
+  </si>
+  <si>
+    <t>This hotel must have great managers to have such a smooth operation.  Quick check in, clean rooms, full breakfast (with pancakes!), no noise and a great direction givers!  Will definitely stay here on my next visit to the texas medical center!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r122779568-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122779568</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Great for its Reliant Park proximity.</t>
+  </si>
+  <si>
+    <t>If you going for an event at Reliant Park, this is a good hotel.  There's only one strip plaza between the hotel and Reliant.  Stay here for what is close to it - Bank of America, Target, 2 grocery stores, Chipotle, Sonic, 5 Guys, Olive Garden, all right outside the hotel entrance. Beds are a bit on the hard side, breakfast is typical continental, staff is friendly. Quiet, no exterior noise.  The hotel does not face the road or anything so there are no "window views." I would stay here again.  If coming from the airport, make sure the cab takes you to the correct Holiday Inn.  There's two others within 2 miles radius.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded January 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2012</t>
+  </si>
+  <si>
+    <t>If you going for an event at Reliant Park, this is a good hotel.  There's only one strip plaza between the hotel and Reliant.  Stay here for what is close to it - Bank of America, Target, 2 grocery stores, Chipotle, Sonic, 5 Guys, Olive Garden, all right outside the hotel entrance. Beds are a bit on the hard side, breakfast is typical continental, staff is friendly. Quiet, no exterior noise.  The hotel does not face the road or anything so there are no "window views." I would stay here again.  If coming from the airport, make sure the cab takes you to the correct Holiday Inn.  There's two others within 2 miles radius.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r118510663-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118510663</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>Close and comfy</t>
+  </si>
+  <si>
+    <t>We stay at this location when we need to go to the Medical Center nearby. The rooms are nicely sized and very comfortable. The staff is attentive. We frequently use our priority club points to get one of the rooms with the jacuzzi tub. Breakfast was typical but plentiful with some added choices like a selection of nuts to add to cereal. Plenty of parking and they offer a free shuttle to the medical center. My only "complaint" is that there is only one way in and out of the parking lot so don't miss the entrance or you have to go around a long block. This is also a good location for Reliant Stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded October 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2011</t>
+  </si>
+  <si>
+    <t>We stay at this location when we need to go to the Medical Center nearby. The rooms are nicely sized and very comfortable. The staff is attentive. We frequently use our priority club points to get one of the rooms with the jacuzzi tub. Breakfast was typical but plentiful with some added choices like a selection of nuts to add to cereal. Plenty of parking and they offer a free shuttle to the medical center. My only "complaint" is that there is only one way in and out of the parking lot so don't miss the entrance or you have to go around a long block. This is also a good location for Reliant Stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r114188192-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114188192</t>
+  </si>
+  <si>
+    <t>06/18/2011</t>
+  </si>
+  <si>
+    <t>The Good the Bad and the Ugly</t>
+  </si>
+  <si>
+    <t>The good:  friendly staff; clean large roomThe bad and the Ugly:  the bed was hard as a brick;  the AC was by the bed and blew on us; the breakfast was terrible.  The cook had apparently quit and the poor man in charge came running in with a bag of groceries.  Even at that the food was of poor quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>HOUHX, Manager at Hotel Ylem, responded to this reviewResponded June 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2011</t>
+  </si>
+  <si>
+    <t>The good:  friendly staff; clean large roomThe bad and the Ugly:  the bed was hard as a brick;  the AC was by the bed and blew on us; the breakfast was terrible.  The cook had apparently quit and the poor man in charge came running in with a bag of groceries.  Even at that the food was of poor quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r112897885-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>112897885</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>We are here for medical and it is in a great location for so many doctors and hospitals.</t>
+  </si>
+  <si>
+    <t>The hotel employers are very friendly and work hard to please the guest.   We woke up to no hot water, when I called the front desk within 5 minutes someone was at our room to help us out.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel employers are very friendly and work hard to please the guest.   We woke up to no hot water, when I called the front desk within 5 minutes someone was at our room to help us out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r98613889-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98613889</t>
+  </si>
+  <si>
+    <t>03/01/2011</t>
+  </si>
+  <si>
+    <t>If you need a hotel near Hou Medical Center - you will love this hotel!!!</t>
+  </si>
+  <si>
+    <t>Stayed at Holday Inn Express Medical Center for a week.  The experience was great.  Very friendy staff who were responsive to all needs.  The front desk clerk would say good morning or hi in the evenings - you would not think this is big deal but after spending the day at the hospital with a loved one, it was nice to hear.  They have a shuttle to the medical center.  Breakfast was good - several items to fit any taste.  They have a nice , clean washer and dryer that was $1.50 - they could charge more knowing people are there for extended stays - but don't.  One other note - the hotel is right around the corner from Target, Kroger and may fast food as well as other resturants.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded May 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2011</t>
+  </si>
+  <si>
+    <t>Stayed at Holday Inn Express Medical Center for a week.  The experience was great.  Very friendy staff who were responsive to all needs.  The front desk clerk would say good morning or hi in the evenings - you would not think this is big deal but after spending the day at the hospital with a loved one, it was nice to hear.  They have a shuttle to the medical center.  Breakfast was good - several items to fit any taste.  They have a nice , clean washer and dryer that was $1.50 - they could charge more knowing people are there for extended stays - but don't.  One other note - the hotel is right around the corner from Target, Kroger and may fast food as well as other resturants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r95968080-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>95968080</t>
+  </si>
+  <si>
+    <t>02/08/2011</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>Stayed here while going  to MD Anderson for treatments. This Hotel is very clean and the staff was extrememly friendly and helpful. Free breakfast was really nice as well. While tthe bed was really nice and linens clean, the mattress with a little firmer than me or my wife like. Not the worst I have ever slept though. Add a pillowtop mattress and this place is darn near perfect!Also, Lots of shopping and restraunts within a short drive, some within walking distance.I will be heading back to MDA next week and will be staying here again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r60287361-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60287361</t>
+  </si>
+  <si>
+    <t>04/03/2010</t>
+  </si>
+  <si>
+    <t>going to stay here again next time</t>
+  </si>
+  <si>
+    <t>nice place to stay.wing stop 2 doors away.We stayed at other holiday inn and suites on main st.This holiday inn express one is twice as nice and was alot cheaper.We were there for MD Anderson app.Also had free shuttle to hospital.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded November 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2010</t>
+  </si>
+  <si>
+    <t>nice place to stay.wing stop 2 doors away.We stayed at other holiday inn and suites on main st.This holiday inn express one is twice as nice and was alot cheaper.We were there for MD Anderson app.Also had free shuttle to hospital.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r53577080-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53577080</t>
+  </si>
+  <si>
+    <t>01/15/2010</t>
+  </si>
+  <si>
+    <t>Really nice place.</t>
+  </si>
+  <si>
+    <t>My father and I visited Houston over the new year, we had a great time and really liked the hotel. Our room was large and even included a microwave and mini fridge. The staff was very nice and they even gave us a welcome bag with candies and such. The breakfast was also very good, they offered cereal, fruit, and served hot foods too, such as bacon and eggs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded December 1, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2010</t>
+  </si>
+  <si>
+    <t>My father and I visited Houston over the new year, we had a great time and really liked the hotel. Our room was large and even included a microwave and mini fridge. The staff was very nice and they even gave us a welcome bag with candies and such. The breakfast was also very good, they offered cereal, fruit, and served hot foods too, such as bacon and eggs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r53219460-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53219460</t>
+  </si>
+  <si>
+    <t>01/11/2010</t>
+  </si>
+  <si>
+    <t>Adequate - close to the MD Anderson medical center. Free shuttle.</t>
+  </si>
+  <si>
+    <t>Our room was nice and not too small. Breakfast was adequate. The staff was very nice and helpful when needed (like letting use use the front desk computer when the business center PC and printers were out of order). We didn't use the pool or fitness center, but they looked clean and fairly well equipped from the outside. Lots of equipment needs service and was out of order: - everything in the business center - internet (for one day) - washer / dryer  - ice machine on our floor - some fitness center equipmentWe only needed the business center and, as I said, they accommodated us at the front desk,MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room was nice and not too small. Breakfast was adequate. The staff was very nice and helpful when needed (like letting use use the front desk computer when the business center PC and printers were out of order). We didn't use the pool or fitness center, but they looked clean and fairly well equipped from the outside. Lots of equipment needs service and was out of order: - everything in the business center - internet (for one day) - washer / dryer  - ice machine on our floor - some fitness center equipmentWe only needed the business center and, as I said, they accommodated us at the front desk,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r51379244-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>51379244</t>
+  </si>
+  <si>
+    <t>12/16/2009</t>
+  </si>
+  <si>
+    <t>NOTHING COULD EVER MAKE THIS HOTEL MORE PERFECT!</t>
+  </si>
+  <si>
+    <t>Hi, my partner and I stayed here for 3 nights and found it to be FANTASTIC with a capital F! Everything about this hotel is great, starting with the location, great service, maids, parking, decor and everything else. We have been to Houston many times in the past and never stayed in such a clean and friendly hotel. Pay a little more and stay here, IT IS WORTH IT. Sam and Sony.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>HOUHX, Guest Relations Manager at Hotel Ylem, responded to this reviewResponded December 18, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2010</t>
+  </si>
+  <si>
+    <t>Hi, my partner and I stayed here for 3 nights and found it to be FANTASTIC with a capital F! Everything about this hotel is great, starting with the location, great service, maids, parking, decor and everything else. We have been to Houston many times in the past and never stayed in such a clean and friendly hotel. Pay a little more and stay here, IT IS WORTH IT. Sam and Sony.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r35884445-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35884445</t>
+  </si>
+  <si>
+    <t>07/26/2009</t>
+  </si>
+  <si>
+    <t>A Great Value</t>
+  </si>
+  <si>
+    <t>Overall the hotel is a great value.  The rooms are a decent size, have nice bathrooms, a microwave and fridge, a desk to work, and free wireless internet(even though it's kind of slow, but hey it's free).  The breakfast is pretty nice, they have eggs, bacon, biscuits w/ gravy, cereals, some fruit, yogurt, and pastries.  What I liked was that even though Holiday Inn Express isn't supposed to be a "full-service" hotel, I never felt like that was the case.  I was there on a Sunday night and the young man at the desk informed me that he was there by himself, but he took care of everything.  My fridge in the room went out for a minute or two, I called him at the desk and he was up there in about 2 minutes.  He tinkered around with some stuff, I heard a beep and then the fridge was working, talk about handy! The crazy thing is that he was there the very next morning to help me out with directions to get to the Toyota Center.  The next day, there were different staff members but they too were very helpful.  It's not the Four Seasons or something, but it's in a good location with plenty of restaurants and stores around, so you've got basically anything you need within walking distance and the service from the staff is great.  Most importantly, at 100 bucks a night, I'm not complaining.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Overall the hotel is a great value.  The rooms are a decent size, have nice bathrooms, a microwave and fridge, a desk to work, and free wireless internet(even though it's kind of slow, but hey it's free).  The breakfast is pretty nice, they have eggs, bacon, biscuits w/ gravy, cereals, some fruit, yogurt, and pastries.  What I liked was that even though Holiday Inn Express isn't supposed to be a "full-service" hotel, I never felt like that was the case.  I was there on a Sunday night and the young man at the desk informed me that he was there by himself, but he took care of everything.  My fridge in the room went out for a minute or two, I called him at the desk and he was up there in about 2 minutes.  He tinkered around with some stuff, I heard a beep and then the fridge was working, talk about handy! The crazy thing is that he was there the very next morning to help me out with directions to get to the Toyota Center.  The next day, there were different staff members but they too were very helpful.  It's not the Four Seasons or something, but it's in a good location with plenty of restaurants and stores around, so you've got basically anything you need within walking distance and the service from the staff is great.  Most importantly, at 100 bucks a night, I'm not complaining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r30883396-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>30883396</t>
+  </si>
+  <si>
+    <t>05/27/2009</t>
+  </si>
+  <si>
+    <t>I was very impressed with the hotel.  Upon arrival, fresh cookies and coffee were being put out in the lobby.  An elderly gentleman coming in said they had free hot dogs the night before!  Check-in was quick as well as our check-out.  Their breakfast consisted of eggs, sausage, gravy, breads, cereals, bananas; plenty to choose from, but after the third day, I was wishing for something a little different.  The room was spacious and clean.  My grandson had plenty of room to play and I felt okay about placing him in the tub.  The hotel is located in a great area that had plenty of eateries and even a grocery store across the street.  It's almost a straight shot to the zoo.  The only drawback, and I'm only mentioning this so someone else won't be taken aback, is that I had a Priority Member 2:00 p.m. late check-out and the maid was knocking on the door before 1:00.  I told her that I had a 2:00 o'clock check-out and she left.  I no more than turned around that the girl from the front desk was calling.  I told her that I got the 2:00 o'clock check-out the day before from the fellow that was working right before we left for the aquarium.  She thanked me and hung-up.  My sister went to get ice and was startled by the maid waiting outside our door.  Needless to say, after my grandson's favorite...I was very impressed with the hotel.  Upon arrival, fresh cookies and coffee were being put out in the lobby.  An elderly gentleman coming in said they had free hot dogs the night before!  Check-in was quick as well as our check-out.  Their breakfast consisted of eggs, sausage, gravy, breads, cereals, bananas; plenty to choose from, but after the third day, I was wishing for something a little different.  The room was spacious and clean.  My grandson had plenty of room to play and I felt okay about placing him in the tub.  The hotel is located in a great area that had plenty of eateries and even a grocery store across the street.  It's almost a straight shot to the zoo.  The only drawback, and I'm only mentioning this so someone else won't be taken aback, is that I had a Priority Member 2:00 p.m. late check-out and the maid was knocking on the door before 1:00.  I told her that I had a 2:00 o'clock check-out and she left.  I no more than turned around that the girl from the front desk was calling.  I told her that I got the 2:00 o'clock check-out the day before from the fellow that was working right before we left for the aquarium.  She thanked me and hung-up.  My sister went to get ice and was startled by the maid waiting outside our door.  Needless to say, after my grandson's favorite cartoon was over, we left at 1:30.  Personally, the maid was no reflection on the hotel itself, she was just hired help that didn't no better.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I was very impressed with the hotel.  Upon arrival, fresh cookies and coffee were being put out in the lobby.  An elderly gentleman coming in said they had free hot dogs the night before!  Check-in was quick as well as our check-out.  Their breakfast consisted of eggs, sausage, gravy, breads, cereals, bananas; plenty to choose from, but after the third day, I was wishing for something a little different.  The room was spacious and clean.  My grandson had plenty of room to play and I felt okay about placing him in the tub.  The hotel is located in a great area that had plenty of eateries and even a grocery store across the street.  It's almost a straight shot to the zoo.  The only drawback, and I'm only mentioning this so someone else won't be taken aback, is that I had a Priority Member 2:00 p.m. late check-out and the maid was knocking on the door before 1:00.  I told her that I had a 2:00 o'clock check-out and she left.  I no more than turned around that the girl from the front desk was calling.  I told her that I got the 2:00 o'clock check-out the day before from the fellow that was working right before we left for the aquarium.  She thanked me and hung-up.  My sister went to get ice and was startled by the maid waiting outside our door.  Needless to say, after my grandson's favorite...I was very impressed with the hotel.  Upon arrival, fresh cookies and coffee were being put out in the lobby.  An elderly gentleman coming in said they had free hot dogs the night before!  Check-in was quick as well as our check-out.  Their breakfast consisted of eggs, sausage, gravy, breads, cereals, bananas; plenty to choose from, but after the third day, I was wishing for something a little different.  The room was spacious and clean.  My grandson had plenty of room to play and I felt okay about placing him in the tub.  The hotel is located in a great area that had plenty of eateries and even a grocery store across the street.  It's almost a straight shot to the zoo.  The only drawback, and I'm only mentioning this so someone else won't be taken aback, is that I had a Priority Member 2:00 p.m. late check-out and the maid was knocking on the door before 1:00.  I told her that I had a 2:00 o'clock check-out and she left.  I no more than turned around that the girl from the front desk was calling.  I told her that I got the 2:00 o'clock check-out the day before from the fellow that was working right before we left for the aquarium.  She thanked me and hung-up.  My sister went to get ice and was startled by the maid waiting outside our door.  Needless to say, after my grandson's favorite cartoon was over, we left at 1:30.  Personally, the maid was no reflection on the hotel itself, she was just hired help that didn't no better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r25766671-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25766671</t>
+  </si>
+  <si>
+    <t>03/07/2009</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is one of the nicest hotels Ive stayed in.The Girl that checked me was very nice her name is Yessenia I like the hotel location,friendly staff.The breakfast was very nice but the breakfast host was very loud.Some people were actually leaving because she was bugging them.But over all its a very good hotel. Thank you so much staff. Especially YesseniaMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is one of the nicest hotels Ive stayed in.The Girl that checked me was very nice her name is Yessenia I like the hotel location,friendly staff.The breakfast was very nice but the breakfast host was very loud.Some people were actually leaving because she was bugging them.But over all its a very good hotel. Thank you so much staff. Especially YesseniaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r22191331-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22191331</t>
+  </si>
+  <si>
+    <t>11/25/2008</t>
+  </si>
+  <si>
+    <t>Very impressed!</t>
+  </si>
+  <si>
+    <t>We had never stayed in a Holiday Inn Express before, but the low rate and proximity to Rice University (less than 3 miles) attracted us.  The cleanliness and new appearance of the 2 story lobby set the tone upon arrival.  We were on the 2nd floor, and the room was very spacious with nice seating and lighting for reading.  The breakfast was tasty and the staff were very friendly and helpful.  The linens and towels were of a very good grade, and very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We had never stayed in a Holiday Inn Express before, but the low rate and proximity to Rice University (less than 3 miles) attracted us.  The cleanliness and new appearance of the 2 story lobby set the tone upon arrival.  We were on the 2nd floor, and the room was very spacious with nice seating and lighting for reading.  The breakfast was tasty and the staff were very friendly and helpful.  The linens and towels were of a very good grade, and very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r16152377-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16152377</t>
+  </si>
+  <si>
+    <t>05/17/2008</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a weekend while a family member was hospitalized nearby.  The hotel provides a free shuttle to the Medical Center which was really nice since parking at the MedCtr is a premium.  Be sure to ask the reception about "hospital rates."MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a weekend while a family member was hospitalized nearby.  The hotel provides a free shuttle to the Medical Center which was really nice since parking at the MedCtr is a premium.  Be sure to ask the reception about "hospital rates."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r15691829-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15691829</t>
+  </si>
+  <si>
+    <t>05/05/2008</t>
+  </si>
+  <si>
+    <t>Good hotel Reasonable Choice</t>
+  </si>
+  <si>
+    <t>I spent a weekend here in a 12th floor suite with a kitchen.  The hotel seems a little dated, but clean.  The room was clean and quiet, altho it was at the end of the hallway.  The bed  was comfortable.  The bathroom is a lttle small.  The room was freezing when we came in but after adjusting the thermostat the room temp was fine. No problem with internet access.  The breakfast buffet is adequate but I didn't see any pastries just bagels and bread.  The parking is okay, altho getting into the lot is a bit of a pain because of all the road construction nearby.  It seemed that the hotel shuttles were always blocking the entry in front of the hotel.Overall, I think it is a good hotel , not great.  However, for the price I think it's a reasonable choice and would not have any problem staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I spent a weekend here in a 12th floor suite with a kitchen.  The hotel seems a little dated, but clean.  The room was clean and quiet, altho it was at the end of the hallway.  The bed  was comfortable.  The bathroom is a lttle small.  The room was freezing when we came in but after adjusting the thermostat the room temp was fine. No problem with internet access.  The breakfast buffet is adequate but I didn't see any pastries just bagels and bread.  The parking is okay, altho getting into the lot is a bit of a pain because of all the road construction nearby.  It seemed that the hotel shuttles were always blocking the entry in front of the hotel.Overall, I think it is a good hotel , not great.  However, for the price I think it's a reasonable choice and would not have any problem staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r12931909-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12931909</t>
+  </si>
+  <si>
+    <t>01/23/2008</t>
+  </si>
+  <si>
+    <t>All about the Holiday Inn - Reliant Stadium</t>
+  </si>
+  <si>
+    <t>I work in the Trade Show and Convention industry. I work for a company that produces the Houston Auto Show every year so for the last 3 years, I have stayed at this Holiday Inn mainly because it is absolutely the closest hotel to the Reliant Center where the Auto Show is held.  When coming to Houston, we usually stay about 14 days at this hotel. It is close enough to walk to the Center and the view from my room is of the huge Reliant Stadium, the Stadium parking lot and the Reliant Center.
+I can say this for sure, this hotel is trying very hard to be a Holiday Inn class of hotel but is missing a few things. Of course this hotel will get busy when there are events going on at the stadium or the center but when I we arrive here each year, there is not much else going on here. So why is this hotel out of King sized beds already?
+The rooms do not come with refrigerators or microwave ovens but I needed both because of the long stay. I was able to request and get both sent up to my room.
+Upon entering my room I noticed how hot the room was. There was no heat on inside the room and it was in January but it was stifling hot. After quickly maxing out the Air Conditioning it cooled off about an...I work in the Trade Show and Convention industry. I work for a company that produces the Houston Auto Show every year so for the last 3 years, I have stayed at this Holiday Inn mainly because it is absolutely the closest hotel to the Reliant Center where the Auto Show is held.  When coming to Houston, we usually stay about 14 days at this hotel. It is close enough to walk to the Center and the view from my room is of the huge Reliant Stadium, the Stadium parking lot and the Reliant Center.I can say this for sure, this hotel is trying very hard to be a Holiday Inn class of hotel but is missing a few things. Of course this hotel will get busy when there are events going on at the stadium or the center but when I we arrive here each year, there is not much else going on here. So why is this hotel out of King sized beds already?The rooms do not come with refrigerators or microwave ovens but I needed both because of the long stay. I was able to request and get both sent up to my room.Upon entering my room I noticed how hot the room was. There was no heat on inside the room and it was in January but it was stifling hot. After quickly maxing out the Air Conditioning it cooled off about an hour later.My room had two double beds, a desk, a three drawer amoire with a 27" TV, a lounge chair that is crammed into the corner of the room and a night stand between the beds. The drawers had a handle missing that no one seemed to care about and there were only three hangers in the closet. I called the front desk to request more hangers and was assured that some would be brought up. They never were.The hotel advertises "free WiFi" so after hooking up my laptop I attempted to go online. It was a very slow connection. So slow that I could not even download my email.  I called the front desk to ask if there was a problem. They said no. They also said that it was a satellite connection so the weather affects the network.  If you have ever been to Houston in January, you know that it rains a lot and the weather changes very quickly. That means that the Internet connection changes quickly.There is a bar and a small dining room that only serves breakfast and lunch. There is also a limited room service menu.Overall not a bad place to stay especially if you are working at or attending an event at the reliant Center. if you are just visiting Houston, you probably want to stay somewhere closer to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>I work in the Trade Show and Convention industry. I work for a company that produces the Houston Auto Show every year so for the last 3 years, I have stayed at this Holiday Inn mainly because it is absolutely the closest hotel to the Reliant Center where the Auto Show is held.  When coming to Houston, we usually stay about 14 days at this hotel. It is close enough to walk to the Center and the view from my room is of the huge Reliant Stadium, the Stadium parking lot and the Reliant Center.
+I can say this for sure, this hotel is trying very hard to be a Holiday Inn class of hotel but is missing a few things. Of course this hotel will get busy when there are events going on at the stadium or the center but when I we arrive here each year, there is not much else going on here. So why is this hotel out of King sized beds already?
+The rooms do not come with refrigerators or microwave ovens but I needed both because of the long stay. I was able to request and get both sent up to my room.
+Upon entering my room I noticed how hot the room was. There was no heat on inside the room and it was in January but it was stifling hot. After quickly maxing out the Air Conditioning it cooled off about an...I work in the Trade Show and Convention industry. I work for a company that produces the Houston Auto Show every year so for the last 3 years, I have stayed at this Holiday Inn mainly because it is absolutely the closest hotel to the Reliant Center where the Auto Show is held.  When coming to Houston, we usually stay about 14 days at this hotel. It is close enough to walk to the Center and the view from my room is of the huge Reliant Stadium, the Stadium parking lot and the Reliant Center.I can say this for sure, this hotel is trying very hard to be a Holiday Inn class of hotel but is missing a few things. Of course this hotel will get busy when there are events going on at the stadium or the center but when I we arrive here each year, there is not much else going on here. So why is this hotel out of King sized beds already?The rooms do not come with refrigerators or microwave ovens but I needed both because of the long stay. I was able to request and get both sent up to my room.Upon entering my room I noticed how hot the room was. There was no heat on inside the room and it was in January but it was stifling hot. After quickly maxing out the Air Conditioning it cooled off about an hour later.My room had two double beds, a desk, a three drawer amoire with a 27" TV, a lounge chair that is crammed into the corner of the room and a night stand between the beds. The drawers had a handle missing that no one seemed to care about and there were only three hangers in the closet. I called the front desk to request more hangers and was assured that some would be brought up. They never were.The hotel advertises "free WiFi" so after hooking up my laptop I attempted to go online. It was a very slow connection. So slow that I could not even download my email.  I called the front desk to ask if there was a problem. They said no. They also said that it was a satellite connection so the weather affects the network.  If you have ever been to Houston in January, you know that it rains a lot and the weather changes very quickly. That means that the Internet connection changes quickly.There is a bar and a small dining room that only serves breakfast and lunch. There is also a limited room service menu.Overall not a bad place to stay especially if you are working at or attending an event at the reliant Center. if you are just visiting Houston, you probably want to stay somewhere closer to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r8214495-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8214495</t>
+  </si>
+  <si>
+    <t>07/21/2007</t>
+  </si>
+  <si>
+    <t>Very nice-will stay here again</t>
+  </si>
+  <si>
+    <t>I stayed here for three days in March.  This hotel is located in South Houston.  Everything from check in to check out went without any problems.  The front desk associates were very helpful and patient.  There is free parking that is well lighted.  The location is convenient to restaurants and stores across the street.  I-610 is just down the road, so there is very good access to the highway.  I had a large room with two queen beds, a sofabed and microwave/fridge for $113/night which was a very good deal.  There was a 27 inch tv/dvd combo in there also.  The bathroom was large and a very good shower.  The continental breakfast was very good also, with the fix-it-yourself waffles i love and hot cinnamon rolls.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I stayed here for three days in March.  This hotel is located in South Houston.  Everything from check in to check out went without any problems.  The front desk associates were very helpful and patient.  There is free parking that is well lighted.  The location is convenient to restaurants and stores across the street.  I-610 is just down the road, so there is very good access to the highway.  I had a large room with two queen beds, a sofabed and microwave/fridge for $113/night which was a very good deal.  There was a 27 inch tv/dvd combo in there also.  The bathroom was large and a very good shower.  The continental breakfast was very good also, with the fix-it-yourself waffles i love and hot cinnamon rolls.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r7416740-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7416740</t>
+  </si>
+  <si>
+    <t>04/21/2007</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express for the Grand Prix of Houston and really enjoyed our stay.  The location of the hotel is close to many stores and resturants.  They even provided a shuttle to the grand prix for us..  The rooms are spacious, clean, and comfortable.  Our room had a refrigerator and microwave.  They also provided a continental breakfast each morning.  I recommend this property, especially for families..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>HOUHX, Public Relations Manager at Hotel Ylem, responded to this reviewResponded December 18, 2010</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express for the Grand Prix of Houston and really enjoyed our stay.  The location of the hotel is close to many stores and resturants.  They even provided a shuttle to the grand prix for us..  The rooms are spacious, clean, and comfortable.  Our room had a refrigerator and microwave.  They also provided a continental breakfast each morning.  I recommend this property, especially for families..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d293234-r2865116-Hotel_Ylem-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2865116</t>
+  </si>
+  <si>
+    <t>12/05/2004</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Express in Houston</t>
+  </si>
+  <si>
+    <t>From the street the Holiday Inn Reliant/Medical Center looks like any good hotel. The interior is very modern and warm and the rooms are large with all the amenities. Plenty of great shopping and restaurants close by with perfect central location.This Holiday Inn is much better than my previous favorite Hampton Inn Galleria and about $30.00 less per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the street the Holiday Inn Reliant/Medical Center looks like any good hotel. The interior is very modern and warm and the rooms are large with all the amenities. Plenty of great shopping and restaurants close by with perfect central location.This Holiday Inn is much better than my previous favorite Hampton Inn Galleria and about $30.00 less per night.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2886,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2918,6548 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>244</v>
+      </c>
+      <c r="X32" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>287</v>
+      </c>
+      <c r="O33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>244</v>
+      </c>
+      <c r="X34" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>340</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>358</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>393</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>393</v>
+      </c>
+      <c r="O46" t="s">
+        <v>95</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>393</v>
+      </c>
+      <c r="O47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>410</v>
+      </c>
+      <c r="X47" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J48" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" t="s">
+        <v>416</v>
+      </c>
+      <c r="L48" t="s">
+        <v>417</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>393</v>
+      </c>
+      <c r="O48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49" t="s">
+        <v>425</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>426</v>
+      </c>
+      <c r="O49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>430</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>433</v>
+      </c>
+      <c r="K50" t="s">
+        <v>434</v>
+      </c>
+      <c r="L50" t="s">
+        <v>435</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>436</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>437</v>
+      </c>
+      <c r="X50" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>430</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>445</v>
+      </c>
+      <c r="X51" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>430</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>95</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>430</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>453</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>430</v>
+      </c>
+      <c r="F55" t="s">
+        <v>469</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>470</v>
+      </c>
+      <c r="J55" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" t="s">
+        <v>472</v>
+      </c>
+      <c r="L55" t="s">
+        <v>473</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>474</v>
+      </c>
+      <c r="X55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>430</v>
+      </c>
+      <c r="F56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" t="s">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>482</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>483</v>
+      </c>
+      <c r="X56" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>430</v>
+      </c>
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>487</v>
+      </c>
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+      <c r="K57" t="s">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>482</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>483</v>
+      </c>
+      <c r="X57" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>482</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>483</v>
+      </c>
+      <c r="X58" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>430</v>
+      </c>
+      <c r="F59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>499</v>
+      </c>
+      <c r="J59" t="s">
+        <v>500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>501</v>
+      </c>
+      <c r="L59" t="s">
+        <v>502</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>503</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>504</v>
+      </c>
+      <c r="X59" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>430</v>
+      </c>
+      <c r="F60" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>508</v>
+      </c>
+      <c r="J60" t="s">
+        <v>509</v>
+      </c>
+      <c r="K60" t="s">
+        <v>510</v>
+      </c>
+      <c r="L60" t="s">
+        <v>511</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>512</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>513</v>
+      </c>
+      <c r="X60" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>430</v>
+      </c>
+      <c r="F61" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>517</v>
+      </c>
+      <c r="J61" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" t="s">
+        <v>519</v>
+      </c>
+      <c r="L61" t="s">
+        <v>520</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>512</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>521</v>
+      </c>
+      <c r="X61" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>430</v>
+      </c>
+      <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>530</v>
+      </c>
+      <c r="X62" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>430</v>
+      </c>
+      <c r="F63" t="s">
+        <v>533</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>534</v>
+      </c>
+      <c r="J63" t="s">
+        <v>535</v>
+      </c>
+      <c r="K63" t="s">
+        <v>536</v>
+      </c>
+      <c r="L63" t="s">
+        <v>537</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>529</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>538</v>
+      </c>
+      <c r="X63" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>430</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>95</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>430</v>
+      </c>
+      <c r="F65" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>550</v>
+      </c>
+      <c r="J65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>552</v>
+      </c>
+      <c r="L65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>554</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>555</v>
+      </c>
+      <c r="X65" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>430</v>
+      </c>
+      <c r="F66" t="s">
+        <v>558</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>559</v>
+      </c>
+      <c r="J66" t="s">
+        <v>560</v>
+      </c>
+      <c r="K66" t="s">
+        <v>561</v>
+      </c>
+      <c r="L66" t="s">
+        <v>562</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>564</v>
+      </c>
+      <c r="X66" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" t="s">
+        <v>567</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>568</v>
+      </c>
+      <c r="J67" t="s">
+        <v>569</v>
+      </c>
+      <c r="K67" t="s">
+        <v>570</v>
+      </c>
+      <c r="L67" t="s">
+        <v>571</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>546</v>
+      </c>
+      <c r="O67" t="s">
+        <v>95</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>564</v>
+      </c>
+      <c r="X67" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>430</v>
+      </c>
+      <c r="F68" t="s">
+        <v>573</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>574</v>
+      </c>
+      <c r="J68" t="s">
+        <v>575</v>
+      </c>
+      <c r="K68" t="s">
+        <v>576</v>
+      </c>
+      <c r="L68" t="s">
+        <v>577</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>546</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>578</v>
+      </c>
+      <c r="X68" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>430</v>
+      </c>
+      <c r="F69" t="s">
+        <v>581</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>582</v>
+      </c>
+      <c r="J69" t="s">
+        <v>583</v>
+      </c>
+      <c r="K69" t="s">
+        <v>584</v>
+      </c>
+      <c r="L69" t="s">
+        <v>585</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>586</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>587</v>
+      </c>
+      <c r="X69" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>430</v>
+      </c>
+      <c r="F70" t="s">
+        <v>590</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>591</v>
+      </c>
+      <c r="J70" t="s">
+        <v>592</v>
+      </c>
+      <c r="K70" t="s">
+        <v>593</v>
+      </c>
+      <c r="L70" t="s">
+        <v>594</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>586</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>595</v>
+      </c>
+      <c r="X70" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>430</v>
+      </c>
+      <c r="F71" t="s">
+        <v>598</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>599</v>
+      </c>
+      <c r="J71" t="s">
+        <v>600</v>
+      </c>
+      <c r="K71" t="s">
+        <v>601</v>
+      </c>
+      <c r="L71" t="s">
+        <v>602</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>603</v>
+      </c>
+      <c r="X71" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>430</v>
+      </c>
+      <c r="F72" t="s">
+        <v>606</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>607</v>
+      </c>
+      <c r="J72" t="s">
+        <v>608</v>
+      </c>
+      <c r="K72" t="s">
+        <v>609</v>
+      </c>
+      <c r="L72" t="s">
+        <v>610</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>611</v>
+      </c>
+      <c r="O72" t="s">
+        <v>95</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>612</v>
+      </c>
+      <c r="X72" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" t="s">
+        <v>615</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>616</v>
+      </c>
+      <c r="J73" t="s">
+        <v>617</v>
+      </c>
+      <c r="K73" t="s">
+        <v>618</v>
+      </c>
+      <c r="L73" t="s">
+        <v>619</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>620</v>
+      </c>
+      <c r="O73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>621</v>
+      </c>
+      <c r="X73" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>430</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" t="s">
+        <v>626</v>
+      </c>
+      <c r="K74" t="s">
+        <v>627</v>
+      </c>
+      <c r="L74" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>629</v>
+      </c>
+      <c r="X74" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>430</v>
+      </c>
+      <c r="F75" t="s">
+        <v>632</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>633</v>
+      </c>
+      <c r="J75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K75" t="s">
+        <v>635</v>
+      </c>
+      <c r="L75" t="s">
+        <v>636</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>637</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>638</v>
+      </c>
+      <c r="X75" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" t="s">
+        <v>641</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>642</v>
+      </c>
+      <c r="J76" t="s">
+        <v>643</v>
+      </c>
+      <c r="K76" t="s">
+        <v>644</v>
+      </c>
+      <c r="L76" t="s">
+        <v>645</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>637</v>
+      </c>
+      <c r="O76" t="s">
+        <v>95</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>646</v>
+      </c>
+      <c r="X76" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>430</v>
+      </c>
+      <c r="F77" t="s">
+        <v>649</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>650</v>
+      </c>
+      <c r="J77" t="s">
+        <v>651</v>
+      </c>
+      <c r="K77" t="s">
+        <v>652</v>
+      </c>
+      <c r="L77" t="s">
+        <v>653</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>654</v>
+      </c>
+      <c r="O77" t="s">
+        <v>95</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>655</v>
+      </c>
+      <c r="X77" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>430</v>
+      </c>
+      <c r="F78" t="s">
+        <v>658</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>659</v>
+      </c>
+      <c r="J78" t="s">
+        <v>660</v>
+      </c>
+      <c r="K78" t="s">
+        <v>322</v>
+      </c>
+      <c r="L78" t="s">
+        <v>661</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>654</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>662</v>
+      </c>
+      <c r="X78" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>430</v>
+      </c>
+      <c r="F79" t="s">
+        <v>665</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>666</v>
+      </c>
+      <c r="J79" t="s">
+        <v>667</v>
+      </c>
+      <c r="K79" t="s">
+        <v>668</v>
+      </c>
+      <c r="L79" t="s">
+        <v>669</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>670</v>
+      </c>
+      <c r="X79" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>430</v>
+      </c>
+      <c r="F80" t="s">
+        <v>673</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>674</v>
+      </c>
+      <c r="J80" t="s">
+        <v>675</v>
+      </c>
+      <c r="K80" t="s">
+        <v>676</v>
+      </c>
+      <c r="L80" t="s">
+        <v>677</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>678</v>
+      </c>
+      <c r="O80" t="s">
+        <v>95</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>679</v>
+      </c>
+      <c r="X80" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>430</v>
+      </c>
+      <c r="F81" t="s">
+        <v>682</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" t="s">
+        <v>684</v>
+      </c>
+      <c r="K81" t="s">
+        <v>685</v>
+      </c>
+      <c r="L81" t="s">
+        <v>686</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>687</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>688</v>
+      </c>
+      <c r="X81" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>430</v>
+      </c>
+      <c r="F82" t="s">
+        <v>691</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>692</v>
+      </c>
+      <c r="J82" t="s">
+        <v>693</v>
+      </c>
+      <c r="K82" t="s">
+        <v>694</v>
+      </c>
+      <c r="L82" t="s">
+        <v>695</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>687</v>
+      </c>
+      <c r="O82" t="s">
+        <v>95</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>688</v>
+      </c>
+      <c r="X82" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F83" t="s">
+        <v>697</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>698</v>
+      </c>
+      <c r="J83" t="s">
+        <v>699</v>
+      </c>
+      <c r="K83" t="s">
+        <v>700</v>
+      </c>
+      <c r="L83" t="s">
+        <v>701</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>702</v>
+      </c>
+      <c r="O83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>703</v>
+      </c>
+      <c r="X83" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>430</v>
+      </c>
+      <c r="F84" t="s">
+        <v>706</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>707</v>
+      </c>
+      <c r="J84" t="s">
+        <v>708</v>
+      </c>
+      <c r="K84" t="s">
+        <v>709</v>
+      </c>
+      <c r="L84" t="s">
+        <v>710</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>702</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>430</v>
+      </c>
+      <c r="F85" t="s">
+        <v>711</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>712</v>
+      </c>
+      <c r="J85" t="s">
+        <v>713</v>
+      </c>
+      <c r="K85" t="s">
+        <v>714</v>
+      </c>
+      <c r="L85" t="s">
+        <v>715</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>716</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>717</v>
+      </c>
+      <c r="X85" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>430</v>
+      </c>
+      <c r="F86" t="s">
+        <v>720</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>721</v>
+      </c>
+      <c r="J86" t="s">
+        <v>722</v>
+      </c>
+      <c r="K86" t="s">
+        <v>723</v>
+      </c>
+      <c r="L86" t="s">
+        <v>724</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>725</v>
+      </c>
+      <c r="O86" t="s">
+        <v>95</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>726</v>
+      </c>
+      <c r="X86" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>430</v>
+      </c>
+      <c r="F87" t="s">
+        <v>729</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>730</v>
+      </c>
+      <c r="J87" t="s">
+        <v>731</v>
+      </c>
+      <c r="K87" t="s">
+        <v>732</v>
+      </c>
+      <c r="L87" t="s">
+        <v>733</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>725</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>726</v>
+      </c>
+      <c r="X87" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>430</v>
+      </c>
+      <c r="F88" t="s">
+        <v>735</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>736</v>
+      </c>
+      <c r="J88" t="s">
+        <v>737</v>
+      </c>
+      <c r="K88" t="s">
+        <v>738</v>
+      </c>
+      <c r="L88" t="s">
+        <v>739</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>740</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>741</v>
+      </c>
+      <c r="X88" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>430</v>
+      </c>
+      <c r="F89" t="s">
+        <v>744</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>745</v>
+      </c>
+      <c r="J89" t="s">
+        <v>746</v>
+      </c>
+      <c r="K89" t="s">
+        <v>747</v>
+      </c>
+      <c r="L89" t="s">
+        <v>748</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>749</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>726</v>
+      </c>
+      <c r="X89" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>430</v>
+      </c>
+      <c r="F90" t="s">
+        <v>751</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>752</v>
+      </c>
+      <c r="J90" t="s">
+        <v>753</v>
+      </c>
+      <c r="K90" t="s">
+        <v>322</v>
+      </c>
+      <c r="L90" t="s">
+        <v>754</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>755</v>
+      </c>
+      <c r="O90" t="s">
+        <v>95</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>726</v>
+      </c>
+      <c r="X90" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>430</v>
+      </c>
+      <c r="F91" t="s">
+        <v>757</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>758</v>
+      </c>
+      <c r="J91" t="s">
+        <v>759</v>
+      </c>
+      <c r="K91" t="s">
+        <v>760</v>
+      </c>
+      <c r="L91" t="s">
+        <v>761</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>726</v>
+      </c>
+      <c r="X91" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F92" t="s">
+        <v>763</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>764</v>
+      </c>
+      <c r="J92" t="s">
+        <v>765</v>
+      </c>
+      <c r="K92" t="s">
+        <v>766</v>
+      </c>
+      <c r="L92" t="s">
+        <v>767</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>768</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>726</v>
+      </c>
+      <c r="X92" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>430</v>
+      </c>
+      <c r="F93" t="s">
+        <v>770</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>771</v>
+      </c>
+      <c r="J93" t="s">
+        <v>772</v>
+      </c>
+      <c r="K93" t="s">
+        <v>773</v>
+      </c>
+      <c r="L93" t="s">
+        <v>774</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>726</v>
+      </c>
+      <c r="X93" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>430</v>
+      </c>
+      <c r="F94" t="s">
+        <v>776</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>777</v>
+      </c>
+      <c r="J94" t="s">
+        <v>778</v>
+      </c>
+      <c r="K94" t="s">
+        <v>779</v>
+      </c>
+      <c r="L94" t="s">
+        <v>780</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>781</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>741</v>
+      </c>
+      <c r="X94" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" t="s">
+        <v>783</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>784</v>
+      </c>
+      <c r="J95" t="s">
+        <v>785</v>
+      </c>
+      <c r="K95" t="s">
+        <v>786</v>
+      </c>
+      <c r="L95" t="s">
+        <v>787</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>788</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>741</v>
+      </c>
+      <c r="X95" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>430</v>
+      </c>
+      <c r="F96" t="s">
+        <v>790</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>791</v>
+      </c>
+      <c r="J96" t="s">
+        <v>792</v>
+      </c>
+      <c r="K96" t="s">
+        <v>793</v>
+      </c>
+      <c r="L96" t="s">
+        <v>794</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>795</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>741</v>
+      </c>
+      <c r="X96" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>430</v>
+      </c>
+      <c r="F97" t="s">
+        <v>797</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>798</v>
+      </c>
+      <c r="J97" t="s">
+        <v>799</v>
+      </c>
+      <c r="K97" t="s">
+        <v>800</v>
+      </c>
+      <c r="L97" t="s">
+        <v>801</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>802</v>
+      </c>
+      <c r="O97" t="s">
+        <v>95</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>803</v>
+      </c>
+      <c r="X97" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>51273</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" t="s">
+        <v>805</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>806</v>
+      </c>
+      <c r="J98" t="s">
+        <v>807</v>
+      </c>
+      <c r="K98" t="s">
+        <v>808</v>
+      </c>
+      <c r="L98" t="s">
+        <v>809</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>621</v>
+      </c>
+      <c r="X98" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
